--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7EA19F-E0B5-4228-82F9-21D40F1B4531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA41AB4-B27C-45F0-BA9D-3F442CC344CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="-225" windowWidth="42450" windowHeight="13515" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="29775" yWindow="90" windowWidth="36855" windowHeight="14805" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Blocksize</t>
   </si>
@@ -232,12 +233,69 @@
   </si>
   <si>
     <t>d-32768</t>
+  </si>
+  <si>
+    <t>EC2 T3 large</t>
+  </si>
+  <si>
+    <t>IO Min / optimal 4096 bytes</t>
+  </si>
+  <si>
+    <t>cpu 2.5 ghz 2 thread 1 core</t>
+  </si>
+  <si>
+    <t>512-b</t>
+  </si>
+  <si>
+    <t>2048-b</t>
+  </si>
+  <si>
+    <t>4096.b</t>
+  </si>
+  <si>
+    <t>8192-b</t>
+  </si>
+  <si>
+    <t>512 logical sector 512 physical  buffered reads 170.4 MB/sec 100 IOPS</t>
+  </si>
+  <si>
+    <t>16384-b</t>
+  </si>
+  <si>
+    <t>b-32768</t>
+  </si>
+  <si>
+    <t>b128</t>
+  </si>
+  <si>
+    <t>512 logical sector 512 physical  buffered reads 260 MB/sec 4000 IOPS (ext2 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ec2 D3.xlarge </t>
+  </si>
+  <si>
+    <t>b-128</t>
+  </si>
+  <si>
+    <t>512 logical sector 512 physical  buffered reads 1.8T</t>
+  </si>
+  <si>
+    <t>b-16384</t>
+  </si>
+  <si>
+    <t>WSL</t>
+  </si>
+  <si>
+    <t>v4096</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,11 +345,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,6 +366,1377 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>WSL Test Run</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Times</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6898000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6915999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6766000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6982000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D9F-4F54-9372-100185DF9596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7733999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7367999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7734000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7496</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6420000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D9F-4F54-9372-100185DF9596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.4561999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.246</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2152000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1701999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D9F-4F54-9372-100185DF9596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read dict from file</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9254000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8711999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9171999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9095999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5D9F-4F54-9372-100185DF9596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetch records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$4:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$4:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.83779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86060000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88840000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0272000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2809999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5D9F-4F54-9372-100185DF9596}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="627170152"/>
+        <c:axId val="460801560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="627170152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460801560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460801560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="627170152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB1F2D7-BA63-0045-3768-D9856A54D0A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,17 +2036,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L4" sqref="L1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="11" max="33" width="9.140625" customWidth="1"/>
+    <col min="10" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -1781,29 +3212,49 @@
         <v>62</v>
       </c>
     </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="T20" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>512</v>
       </c>
       <c r="B21">
-        <f>SUM(J21:J25)/5</f>
-        <v>4.2534000000000001</v>
+        <f>SUM(J21:J24)/4</f>
+        <v>5.3167499999999999</v>
       </c>
       <c r="C21">
-        <f>SUM(K21:K25)/5</f>
-        <v>4.0933999999999999</v>
+        <f>SUM(K21:K24)/4</f>
+        <v>5.1167499999999997</v>
       </c>
       <c r="D21">
-        <f>SUM(L21:L25)/5</f>
-        <v>4.0266000000000002</v>
+        <f>SUM(L21:L24)/4</f>
+        <v>5.0332499999999998</v>
       </c>
       <c r="E21">
-        <f>SUM(M21:M25)/5</f>
-        <v>4.8769999999999998</v>
+        <f>SUM(M21:M24)/4</f>
+        <v>6.0962499999999995</v>
       </c>
       <c r="F21">
-        <f>SUM(N21:N25)/5</f>
-        <v>5.0053999999999998</v>
+        <f>SUM(N21:N24)/4</f>
+        <v>6.2567500000000003</v>
       </c>
       <c r="J21">
         <v>5.3319999999999999</v>
@@ -1820,8 +3271,106 @@
       <c r="N21">
         <v>6.1020000000000003</v>
       </c>
+      <c r="O21">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="P21">
+        <v>4.827</v>
+      </c>
+      <c r="Q21">
+        <v>5.4779999999999998</v>
+      </c>
+      <c r="R21">
+        <v>5.9589999999999996</v>
+      </c>
+      <c r="S21">
+        <v>5.5869999999999997</v>
+      </c>
+      <c r="T21">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="U21">
+        <v>5.0780000000000003</v>
+      </c>
+      <c r="V21">
+        <v>4.5465</v>
+      </c>
+      <c r="W21">
+        <v>5.9690000000000003</v>
+      </c>
+      <c r="X21">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="Y21">
+        <v>5.1178999999999997</v>
+      </c>
+      <c r="Z21">
+        <v>4.9740000000000002</v>
+      </c>
+      <c r="AA21">
+        <v>4.7385000000000002</v>
+      </c>
+      <c r="AB21">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="AC21">
+        <v>5.5957999999999997</v>
+      </c>
+      <c r="AD21">
+        <v>5.1935000000000002</v>
+      </c>
+      <c r="AE21">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="AF21">
+        <v>4.7240000000000002</v>
+      </c>
+      <c r="AG21">
+        <v>6.3869999999999996</v>
+      </c>
+      <c r="AH21">
+        <v>5.7199</v>
+      </c>
+      <c r="AI21">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="AJ21">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="AK21">
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="AL21">
+        <v>5.8890000000000002</v>
+      </c>
+      <c r="AM21">
+        <v>6.2130000000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>128</v>
+      </c>
+      <c r="B22">
+        <f>SUM(O21:O24)/4</f>
+        <v>5.2572500000000009</v>
+      </c>
+      <c r="C22">
+        <f>SUM(P21:P24)/4</f>
+        <v>4.8766500000000006</v>
+      </c>
+      <c r="D22">
+        <f>SUM(Q21:Q24)/4</f>
+        <v>5.62</v>
+      </c>
+      <c r="E22">
+        <f>SUM(R21:R24)/4</f>
+        <v>6.0942499999999997</v>
+      </c>
+      <c r="F22">
+        <f>SUM(S21:S24)/4</f>
+        <v>5.7717499999999999</v>
+      </c>
       <c r="J22">
         <v>5.2789999999999999</v>
       </c>
@@ -1837,8 +3386,106 @@
       <c r="N22">
         <v>6.2439999999999998</v>
       </c>
+      <c r="O22">
+        <v>5.2130000000000001</v>
+      </c>
+      <c r="P22">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>5.718</v>
+      </c>
+      <c r="R22">
+        <v>6.1050000000000004</v>
+      </c>
+      <c r="S22">
+        <v>5.7190000000000003</v>
+      </c>
+      <c r="T22">
+        <v>5.2270000000000003</v>
+      </c>
+      <c r="U22">
+        <v>5.016</v>
+      </c>
+      <c r="V22">
+        <v>4.7850000000000001</v>
+      </c>
+      <c r="W22">
+        <v>6.0439999999999996</v>
+      </c>
+      <c r="X22">
+        <v>5.6260000000000003</v>
+      </c>
+      <c r="Y22">
+        <v>5.2290000000000001</v>
+      </c>
+      <c r="Z22">
+        <v>5.2949999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>4.8620000000000001</v>
+      </c>
+      <c r="AB22">
+        <v>6.0369999999999999</v>
+      </c>
+      <c r="AC22">
+        <v>5.5650000000000004</v>
+      </c>
+      <c r="AD22">
+        <v>5.2050000000000001</v>
+      </c>
+      <c r="AE22">
+        <v>4.9980000000000002</v>
+      </c>
+      <c r="AF22">
+        <v>4.633</v>
+      </c>
+      <c r="AG22">
+        <v>5.915</v>
+      </c>
+      <c r="AH22">
+        <v>5.6609999999999996</v>
+      </c>
+      <c r="AI22">
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="AJ22">
+        <v>4.04</v>
+      </c>
+      <c r="AK22">
+        <v>4.6369999999999996</v>
+      </c>
+      <c r="AL22">
+        <v>5.9535</v>
+      </c>
+      <c r="AM22">
+        <v>6.0449999999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4096</v>
+      </c>
+      <c r="B23">
+        <f>SUM(T21:T25)/5</f>
+        <v>5.1967400000000001</v>
+      </c>
+      <c r="C23">
+        <f>SUM(U21:U25)/5</f>
+        <v>5.0961400000000001</v>
+      </c>
+      <c r="D23">
+        <f>SUM(V21:V25)/5</f>
+        <v>4.7762599999999997</v>
+      </c>
+      <c r="E23">
+        <f>SUM(W21:W25)/5</f>
+        <v>6.0262000000000002</v>
+      </c>
+      <c r="F23">
+        <f>SUM(X21:X25)/5</f>
+        <v>5.3798000000000004</v>
+      </c>
       <c r="J23">
         <v>5.3220000000000001</v>
       </c>
@@ -1854,8 +3501,106 @@
       <c r="N23">
         <v>6.37</v>
       </c>
+      <c r="O23">
+        <v>5.335</v>
+      </c>
+      <c r="P23">
+        <v>4.9645999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="R23">
+        <v>6.2320000000000002</v>
+      </c>
+      <c r="S23">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="T23">
+        <v>5.2309999999999999</v>
+      </c>
+      <c r="U23">
+        <v>5.327</v>
+      </c>
+      <c r="V23">
+        <v>4.8380000000000001</v>
+      </c>
+      <c r="W23">
+        <v>5.9450000000000003</v>
+      </c>
+      <c r="X23">
+        <v>5.3</v>
+      </c>
+      <c r="Y23">
+        <v>5.1820000000000004</v>
+      </c>
+      <c r="Z23">
+        <v>5.2849000000000004</v>
+      </c>
+      <c r="AA23">
+        <v>4.8680000000000003</v>
+      </c>
+      <c r="AB23">
+        <v>6.0404999999999998</v>
+      </c>
+      <c r="AC23">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="AD23">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="AE23">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AF23">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="AG23">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="AH23">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="AI23">
+        <v>5.218</v>
+      </c>
+      <c r="AJ23">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="AK23">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="AL23">
+        <v>5.8979999999999997</v>
+      </c>
+      <c r="AM23">
+        <v>6.032</v>
+      </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2048</v>
+      </c>
+      <c r="B24">
+        <f>SUM(Y21:Y25)/4</f>
+        <v>5.1784749999999997</v>
+      </c>
+      <c r="C24">
+        <f>SUM(Z21:Z25)/4</f>
+        <v>5.153975</v>
+      </c>
+      <c r="D24">
+        <f>SUM(AA21:AA25)/4</f>
+        <v>4.8313750000000004</v>
+      </c>
+      <c r="E24">
+        <f>SUM(AB21:AB25)/4</f>
+        <v>6.0153749999999988</v>
+      </c>
+      <c r="F24">
+        <f>SUM(AC21:AC25)/4</f>
+        <v>5.4442000000000004</v>
+      </c>
       <c r="J24">
         <v>5.3339999999999996</v>
       </c>
@@ -1870,6 +3615,1535 @@
       </c>
       <c r="N24">
         <v>6.3109999999999999</v>
+      </c>
+      <c r="O24">
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="P24">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="Q24">
+        <v>5.593</v>
+      </c>
+      <c r="R24">
+        <v>6.0810000000000004</v>
+      </c>
+      <c r="S24">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="T24">
+        <v>5.2069999999999999</v>
+      </c>
+      <c r="U24">
+        <v>5.0186999999999999</v>
+      </c>
+      <c r="V24">
+        <v>4.8689</v>
+      </c>
+      <c r="W24">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="X24">
+        <v>5.3369999999999997</v>
+      </c>
+      <c r="Y24">
+        <v>5.1849999999999996</v>
+      </c>
+      <c r="Z24">
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="AA24">
+        <v>4.8570000000000002</v>
+      </c>
+      <c r="AB24">
+        <v>5.8819999999999997</v>
+      </c>
+      <c r="AC24">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="AD24">
+        <v>5.2965999999999998</v>
+      </c>
+      <c r="AE24">
+        <v>5.1550000000000002</v>
+      </c>
+      <c r="AF24">
+        <v>4.6845999999999997</v>
+      </c>
+      <c r="AG24">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="AH24">
+        <v>5.5510000000000002</v>
+      </c>
+      <c r="AI24">
+        <v>5.3209999999999997</v>
+      </c>
+      <c r="AJ24">
+        <v>4.9875999999999996</v>
+      </c>
+      <c r="AK24">
+        <v>4.6740000000000004</v>
+      </c>
+      <c r="AL24">
+        <v>6.0095000000000001</v>
+      </c>
+      <c r="AM24">
+        <v>6.0679999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8192</v>
+      </c>
+      <c r="B25">
+        <f>SUM(AD21:AD25)/4</f>
+        <v>5.2372750000000003</v>
+      </c>
+      <c r="C25">
+        <f>SUM(AE21:AE25)/4</f>
+        <v>5.1112500000000001</v>
+      </c>
+      <c r="D25">
+        <f>SUM(AF21:AF25)/4</f>
+        <v>4.6841499999999998</v>
+      </c>
+      <c r="E25">
+        <f>SUM(AG21:AG25)/4</f>
+        <v>6.0602499999999999</v>
+      </c>
+      <c r="F25">
+        <f>SUM(AH21:AH25)/4</f>
+        <v>5.6402250000000009</v>
+      </c>
+      <c r="T25">
+        <v>5.1927000000000003</v>
+      </c>
+      <c r="U25">
+        <v>5.0410000000000004</v>
+      </c>
+      <c r="V25">
+        <v>4.8429000000000002</v>
+      </c>
+      <c r="W25">
+        <v>6.17</v>
+      </c>
+      <c r="X25">
+        <v>5.3570000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>16384</v>
+      </c>
+      <c r="B26">
+        <f>SUM(AI22:AI25)/4</f>
+        <v>3.9384999999999999</v>
+      </c>
+      <c r="C26">
+        <f>SUM(AJ21:AJ25)/4</f>
+        <v>4.8559000000000001</v>
+      </c>
+      <c r="D26">
+        <f>SUM(AK21:AK25)/4</f>
+        <v>4.6152499999999996</v>
+      </c>
+      <c r="E26">
+        <f>SUM(AL21:AL25)/4</f>
+        <v>5.9375</v>
+      </c>
+      <c r="F26">
+        <f>SUM(AM21:AM25)/4</f>
+        <v>6.0894999999999992</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>512</v>
+      </c>
+      <c r="B30">
+        <f>SUM(J30:J34)/5</f>
+        <v>4.5595400000000001</v>
+      </c>
+      <c r="C30">
+        <f>SUM(K30:K34)/5</f>
+        <v>3.8302</v>
+      </c>
+      <c r="D30">
+        <f>SUM(L30:L34)/5</f>
+        <v>3.4728000000000003</v>
+      </c>
+      <c r="E30">
+        <f>SUM(M30:M34)/5</f>
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="F30">
+        <f>SUM(N30:N34)/5</f>
+        <v>1.3031999999999999</v>
+      </c>
+      <c r="J30">
+        <v>4.6340000000000003</v>
+      </c>
+      <c r="K30">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="L30">
+        <v>3.4830000000000001</v>
+      </c>
+      <c r="M30">
+        <v>5.03</v>
+      </c>
+      <c r="N30">
+        <v>1.32</v>
+      </c>
+      <c r="O30">
+        <v>4.6929999999999996</v>
+      </c>
+      <c r="P30">
+        <v>4.3460000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="R30">
+        <v>5.1820000000000004</v>
+      </c>
+      <c r="S30">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="T30">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="U30">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="V30">
+        <v>3.3159999999999998</v>
+      </c>
+      <c r="W30">
+        <v>5.391</v>
+      </c>
+      <c r="X30">
+        <v>1.296</v>
+      </c>
+      <c r="Y30">
+        <v>4.516</v>
+      </c>
+      <c r="Z30">
+        <v>4.0810000000000004</v>
+      </c>
+      <c r="AA30">
+        <v>3.2160000000000002</v>
+      </c>
+      <c r="AB30">
+        <v>5.1369999999999996</v>
+      </c>
+      <c r="AC30">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="AD30">
+        <v>4.3890000000000002</v>
+      </c>
+      <c r="AE30">
+        <v>3.8420000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>3.16</v>
+      </c>
+      <c r="AG30">
+        <v>5.23</v>
+      </c>
+      <c r="AH30">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="AI30">
+        <v>4.3979999999999997</v>
+      </c>
+      <c r="AJ30">
+        <v>3.8740000000000001</v>
+      </c>
+      <c r="AK30">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="AL30">
+        <v>5.0730000000000004</v>
+      </c>
+      <c r="AM30">
+        <v>2.0190000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2048</v>
+      </c>
+      <c r="B31">
+        <f>SUM(O30:O34)/5</f>
+        <v>4.6338000000000008</v>
+      </c>
+      <c r="C31">
+        <f>SUM(P30:P34)/5</f>
+        <v>3.9753999999999996</v>
+      </c>
+      <c r="D31">
+        <f>SUM(Q30:Q34)/5</f>
+        <v>3.2955999999999994</v>
+      </c>
+      <c r="E31">
+        <f>SUM(R30:R34)/5</f>
+        <v>5.1954000000000002</v>
+      </c>
+      <c r="F31">
+        <f>SUM(S30:S34)/5</f>
+        <v>1.3048000000000002</v>
+      </c>
+      <c r="J31">
+        <v>4.6989999999999998</v>
+      </c>
+      <c r="K31">
+        <v>3.8460000000000001</v>
+      </c>
+      <c r="L31">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="M31">
+        <v>5.1379999999999999</v>
+      </c>
+      <c r="N31">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="O31">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P31">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="Q31">
+        <v>3.2829999999999999</v>
+      </c>
+      <c r="R31">
+        <v>5.1479999999999997</v>
+      </c>
+      <c r="S31">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="T31">
+        <v>4.5709999999999997</v>
+      </c>
+      <c r="U31">
+        <v>3.87</v>
+      </c>
+      <c r="V31">
+        <v>3.323</v>
+      </c>
+      <c r="W31">
+        <v>5.3179999999999996</v>
+      </c>
+      <c r="X31">
+        <v>1.28</v>
+      </c>
+      <c r="Y31">
+        <v>4.6820000000000004</v>
+      </c>
+      <c r="Z31">
+        <v>4.0019999999999998</v>
+      </c>
+      <c r="AA31">
+        <v>3.1680000000000001</v>
+      </c>
+      <c r="AB31">
+        <v>5.2519999999999998</v>
+      </c>
+      <c r="AC31">
+        <v>1.387</v>
+      </c>
+      <c r="AD31">
+        <v>5.319</v>
+      </c>
+      <c r="AE31">
+        <v>4.0709999999999997</v>
+      </c>
+      <c r="AF31">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>5.2960000000000003</v>
+      </c>
+      <c r="AH31">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="AI31">
+        <v>4.4560000000000004</v>
+      </c>
+      <c r="AJ31">
+        <v>3.94</v>
+      </c>
+      <c r="AK31">
+        <v>3.145</v>
+      </c>
+      <c r="AL31">
+        <v>5.1230000000000002</v>
+      </c>
+      <c r="AM31">
+        <v>2.024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4096</v>
+      </c>
+      <c r="B32">
+        <f>SUM(T31:T35)/5</f>
+        <v>3.621</v>
+      </c>
+      <c r="C32">
+        <f>SUM(U31:U35)/5</f>
+        <v>3.1248</v>
+      </c>
+      <c r="D32">
+        <f>SUM(V31:V35)/5</f>
+        <v>2.6332</v>
+      </c>
+      <c r="E32">
+        <f>SUM(W31:W35)/5</f>
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="F32">
+        <f>SUM(X31:X35)/5</f>
+        <v>1.0287999999999999</v>
+      </c>
+      <c r="J32">
+        <v>4.3666999999999998</v>
+      </c>
+      <c r="K32">
+        <v>3.839</v>
+      </c>
+      <c r="L32">
+        <v>3.4420000000000002</v>
+      </c>
+      <c r="M32">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="N32">
+        <v>1.319</v>
+      </c>
+      <c r="O32">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="P32">
+        <v>3.97</v>
+      </c>
+      <c r="Q32">
+        <v>3.302</v>
+      </c>
+      <c r="R32">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="S32">
+        <v>1.27</v>
+      </c>
+      <c r="T32">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="U32">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="V32">
+        <v>3.262</v>
+      </c>
+      <c r="W32">
+        <v>5.1459999999999999</v>
+      </c>
+      <c r="X32">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>4.3209999999999997</v>
+      </c>
+      <c r="Z32">
+        <v>3.944</v>
+      </c>
+      <c r="AA32">
+        <v>3.2280000000000002</v>
+      </c>
+      <c r="AB32">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="AC32">
+        <v>1.391</v>
+      </c>
+      <c r="AD32">
+        <v>4.5830000000000002</v>
+      </c>
+      <c r="AE32">
+        <v>3.8580000000000001</v>
+      </c>
+      <c r="AF32">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="AG32">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="AH32">
+        <v>1.595</v>
+      </c>
+      <c r="AI32">
+        <v>4.4329999999999998</v>
+      </c>
+      <c r="AJ32">
+        <v>3.915</v>
+      </c>
+      <c r="AK32">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="AL32">
+        <v>5.2519999999999998</v>
+      </c>
+      <c r="AM32">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8192</v>
+      </c>
+      <c r="B33">
+        <f>SUM(Y30:Y34)/5</f>
+        <v>4.5659999999999998</v>
+      </c>
+      <c r="C33">
+        <f>SUM(Z30:Z34)/5</f>
+        <v>4.0590000000000002</v>
+      </c>
+      <c r="D33">
+        <f>SUM(AA30:AA34)/5</f>
+        <v>3.1981999999999999</v>
+      </c>
+      <c r="E33">
+        <f>SUM(AB30:AB34)/5</f>
+        <v>5.2470000000000008</v>
+      </c>
+      <c r="F33">
+        <f>SUM(AC30:AC34)/5</f>
+        <v>1.3876000000000002</v>
+      </c>
+      <c r="J33">
+        <v>4.5439999999999996</v>
+      </c>
+      <c r="K33">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="L33">
+        <v>3.4609999999999999</v>
+      </c>
+      <c r="M33">
+        <v>5.2290000000000001</v>
+      </c>
+      <c r="N33">
+        <v>1.282</v>
+      </c>
+      <c r="O33">
+        <v>4.78</v>
+      </c>
+      <c r="P33">
+        <v>3.8260000000000001</v>
+      </c>
+      <c r="Q33">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="R33">
+        <v>5.34</v>
+      </c>
+      <c r="S33">
+        <v>1.302</v>
+      </c>
+      <c r="T33">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="U33">
+        <v>4.0359999999999996</v>
+      </c>
+      <c r="V33">
+        <v>3.2469999999999999</v>
+      </c>
+      <c r="W33">
+        <v>5.3710000000000004</v>
+      </c>
+      <c r="X33">
+        <v>1.296</v>
+      </c>
+      <c r="Y33">
+        <v>4.76</v>
+      </c>
+      <c r="Z33">
+        <v>4.3010000000000002</v>
+      </c>
+      <c r="AA33">
+        <v>3.198</v>
+      </c>
+      <c r="AB33">
+        <v>5.5419999999999998</v>
+      </c>
+      <c r="AC33">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="AD33">
+        <v>4.7210000000000001</v>
+      </c>
+      <c r="AE33">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="AF33">
+        <v>3.0859999999999999</v>
+      </c>
+      <c r="AG33">
+        <v>5.476</v>
+      </c>
+      <c r="AH33">
+        <v>1.571</v>
+      </c>
+      <c r="AI33">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="AJ33">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="AK33">
+        <v>3.0979999999999999</v>
+      </c>
+      <c r="AL33">
+        <v>5.1139999999999999</v>
+      </c>
+      <c r="AM33">
+        <v>1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16384</v>
+      </c>
+      <c r="B34">
+        <f>SUM(AD30:AD34)/5</f>
+        <v>4.6981999999999999</v>
+      </c>
+      <c r="C34">
+        <f>SUM(AE30:AE34)/5</f>
+        <v>3.8853999999999997</v>
+      </c>
+      <c r="D34">
+        <f>SUM(AF30:AF34)/5</f>
+        <v>3.1500000000000004</v>
+      </c>
+      <c r="E34">
+        <f>SUM(AG30:AG34)/5</f>
+        <v>5.2861999999999991</v>
+      </c>
+      <c r="F34">
+        <f>SUM(AH30:AH34)/5</f>
+        <v>1.591</v>
+      </c>
+      <c r="J34">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="K34">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="L34">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="M34">
+        <v>5.5650000000000004</v>
+      </c>
+      <c r="N34">
+        <v>1.304</v>
+      </c>
+      <c r="O34">
+        <v>4.609</v>
+      </c>
+      <c r="P34">
+        <v>3.9129999999999998</v>
+      </c>
+      <c r="Q34">
+        <v>3.2839999999999998</v>
+      </c>
+      <c r="R34">
+        <v>5.101</v>
+      </c>
+      <c r="S34">
+        <v>1.31</v>
+      </c>
+      <c r="T34">
+        <v>4.4420000000000002</v>
+      </c>
+      <c r="U34">
+        <v>3.8519999999999999</v>
+      </c>
+      <c r="V34">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="W34">
+        <v>5.21</v>
+      </c>
+      <c r="X34">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="Z34">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>3.181</v>
+      </c>
+      <c r="AB34">
+        <v>5.1260000000000003</v>
+      </c>
+      <c r="AC34">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="AD34">
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="AE34">
+        <v>3.819</v>
+      </c>
+      <c r="AF34">
+        <v>3.22</v>
+      </c>
+      <c r="AG34">
+        <v>5.1820000000000004</v>
+      </c>
+      <c r="AH34">
+        <v>1.591</v>
+      </c>
+      <c r="AI34">
+        <v>4.7089999999999996</v>
+      </c>
+      <c r="AJ34">
+        <v>3.8730000000000002</v>
+      </c>
+      <c r="AK34">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="AL34">
+        <v>5.1239999999999997</v>
+      </c>
+      <c r="AM34">
+        <v>2.0219999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32768</v>
+      </c>
+      <c r="B35">
+        <f>SUM(AI30:AI34)/5</f>
+        <v>4.5249999999999995</v>
+      </c>
+      <c r="C35">
+        <f>SUM(AJ30:AJ34)/5</f>
+        <v>3.8957999999999999</v>
+      </c>
+      <c r="D35">
+        <f>SUM(AK30:AK34)/5</f>
+        <v>3.1145999999999998</v>
+      </c>
+      <c r="E35">
+        <f>SUM(AL30:AL34)/5</f>
+        <v>5.1372</v>
+      </c>
+      <c r="F35">
+        <f>SUM(AM30:AM34)/5</f>
+        <v>2.0103999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AI36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>512</v>
+      </c>
+      <c r="B39">
+        <f>SUM(J39:J43)/5</f>
+        <v>4.5506000000000002</v>
+      </c>
+      <c r="C39">
+        <f>SUM(K39:K43)/5</f>
+        <v>4.0935999999999995</v>
+      </c>
+      <c r="D39">
+        <f>SUM(L39:L43)/5</f>
+        <v>3.5768</v>
+      </c>
+      <c r="E39">
+        <f>SUM(M39:M43)/5</f>
+        <v>4.1185999999999998</v>
+      </c>
+      <c r="F39">
+        <f>SUM(N39:N43)/5</f>
+        <v>1.0517999999999998</v>
+      </c>
+      <c r="J39" s="4">
+        <v>4.4870000000000001</v>
+      </c>
+      <c r="K39">
+        <v>4.09</v>
+      </c>
+      <c r="L39">
+        <v>3.6019999999999999</v>
+      </c>
+      <c r="M39">
+        <v>5.2350000000000003</v>
+      </c>
+      <c r="N39">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="T39">
+        <v>4.5129999999999999</v>
+      </c>
+      <c r="U39">
+        <v>3.9140000000000001</v>
+      </c>
+      <c r="V39">
+        <v>3.3559999999999999</v>
+      </c>
+      <c r="W39">
+        <v>5.05</v>
+      </c>
+      <c r="X39">
+        <v>1.2629999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>5.0119999999999996</v>
+      </c>
+      <c r="K40">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="L40">
+        <v>3.5870000000000002</v>
+      </c>
+      <c r="M40">
+        <v>5.2480000000000002</v>
+      </c>
+      <c r="N40">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="T40">
+        <v>4.415</v>
+      </c>
+      <c r="U40">
+        <v>3.9489999999999998</v>
+      </c>
+      <c r="V40">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="W40">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="X40">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4096</v>
+      </c>
+      <c r="B41">
+        <f>SUM(T39:T43)/5</f>
+        <v>4.6067999999999998</v>
+      </c>
+      <c r="C41">
+        <f>SUM(U39:U43)/5</f>
+        <v>3.9254000000000007</v>
+      </c>
+      <c r="D41">
+        <f>SUM(V39:V43)/5</f>
+        <v>3.3573999999999997</v>
+      </c>
+      <c r="E41">
+        <f>SUM(W39:W43)/5</f>
+        <v>5.0423999999999998</v>
+      </c>
+      <c r="F41">
+        <f>SUM(X39:X43)/5</f>
+        <v>1.2804</v>
+      </c>
+      <c r="J41">
+        <v>4.3869999999999996</v>
+      </c>
+      <c r="K41">
+        <v>4.2619999999999996</v>
+      </c>
+      <c r="L41">
+        <v>3.52</v>
+      </c>
+      <c r="M41">
+        <v>5.0220000000000002</v>
+      </c>
+      <c r="N41">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="T41">
+        <v>5.15</v>
+      </c>
+      <c r="U41">
+        <v>3.8719999999999999</v>
+      </c>
+      <c r="V41">
+        <v>3.367</v>
+      </c>
+      <c r="W41">
+        <v>5.016</v>
+      </c>
+      <c r="X41">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>4.3120000000000003</v>
+      </c>
+      <c r="K42">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="L42">
+        <v>3.5539999999999998</v>
+      </c>
+      <c r="M42">
+        <v>5.0880000000000001</v>
+      </c>
+      <c r="N42">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="T42">
+        <v>4.4829999999999997</v>
+      </c>
+      <c r="U42">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="V42">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="W42">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="X42">
+        <v>1.264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="K43">
+        <v>3.956</v>
+      </c>
+      <c r="L43">
+        <v>3.621</v>
+      </c>
+      <c r="T43">
+        <v>4.4729999999999999</v>
+      </c>
+      <c r="U43">
+        <v>4.0540000000000003</v>
+      </c>
+      <c r="V43">
+        <v>3.3740000000000001</v>
+      </c>
+      <c r="W43">
+        <v>4.9589999999999996</v>
+      </c>
+      <c r="X43">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>78</v>
+      </c>
+      <c r="O44" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <f>SUM(J45:J49)/5</f>
+        <v>4.2152599999999998</v>
+      </c>
+      <c r="C45">
+        <f>SUM(K45:K49)/5</f>
+        <v>3.7088220000000001</v>
+      </c>
+      <c r="D45">
+        <f>SUM(L45:L49)/5</f>
+        <v>4.0553400000000002</v>
+      </c>
+      <c r="E45">
+        <f>SUM(M45:M49)/5</f>
+        <v>4.7708600000000008</v>
+      </c>
+      <c r="F45">
+        <f>SUM(N45:N49)/5</f>
+        <v>1.2216400000000001</v>
+      </c>
+      <c r="J45">
+        <v>4.2389999999999999</v>
+      </c>
+      <c r="K45">
+        <v>3.7589999999999999</v>
+      </c>
+      <c r="L45">
+        <v>3.996</v>
+      </c>
+      <c r="M45">
+        <v>4.7</v>
+      </c>
+      <c r="N45">
+        <v>1.228</v>
+      </c>
+      <c r="O45">
+        <v>4.0808</v>
+      </c>
+      <c r="P45">
+        <v>4.2320000000000002</v>
+      </c>
+      <c r="Q45">
+        <v>3.5030000000000001</v>
+      </c>
+      <c r="R45">
+        <v>4.7450000000000001</v>
+      </c>
+      <c r="S45">
+        <v>1.2536</v>
+      </c>
+      <c r="T45">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="U45">
+        <v>4.2409999999999997</v>
+      </c>
+      <c r="V45">
+        <v>3.274</v>
+      </c>
+      <c r="W45">
+        <v>4.7880000000000003</v>
+      </c>
+      <c r="X45">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="Y45">
+        <v>4.0778999999999996</v>
+      </c>
+      <c r="Z45">
+        <v>3.9470000000000001</v>
+      </c>
+      <c r="AA45">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="AB45">
+        <v>4.7057000000000002</v>
+      </c>
+      <c r="AC45">
+        <v>1.4938</v>
+      </c>
+      <c r="AD45">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="AE45">
+        <v>3.7989000000000002</v>
+      </c>
+      <c r="AF45">
+        <v>3.1254</v>
+      </c>
+      <c r="AG45">
+        <v>4.6980000000000004</v>
+      </c>
+      <c r="AH45">
+        <v>1.8879999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>512</v>
+      </c>
+      <c r="B46">
+        <f>SUM(O45:O49)/5</f>
+        <v>4.1179600000000001</v>
+      </c>
+      <c r="C46">
+        <f>SUM(P45:P49)/5</f>
+        <v>3.8906000000000005</v>
+      </c>
+      <c r="D46">
+        <f>SUM(Q45:Q49)/5</f>
+        <v>3.5391800000000004</v>
+      </c>
+      <c r="E46">
+        <f>SUM(R45:R49)/5</f>
+        <v>4.7377200000000004</v>
+      </c>
+      <c r="F46">
+        <f>SUM(S45:S49)/5</f>
+        <v>1.23508</v>
+      </c>
+      <c r="J46">
+        <v>4.2359999999999998</v>
+      </c>
+      <c r="K46">
+        <v>3.7269999999999999</v>
+      </c>
+      <c r="L46">
+        <v>4.0739999999999998</v>
+      </c>
+      <c r="M46">
+        <v>4.7009999999999996</v>
+      </c>
+      <c r="N46">
+        <v>1.212</v>
+      </c>
+      <c r="O46">
+        <v>4.1477000000000004</v>
+      </c>
+      <c r="P46">
+        <v>3.8090000000000002</v>
+      </c>
+      <c r="Q46">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="R46">
+        <v>4.7290000000000001</v>
+      </c>
+      <c r="S46">
+        <v>1.2117</v>
+      </c>
+      <c r="T46">
+        <v>4.0735000000000001</v>
+      </c>
+      <c r="U46">
+        <v>3.7947000000000002</v>
+      </c>
+      <c r="V46">
+        <v>3.2675999999999998</v>
+      </c>
+      <c r="W46">
+        <v>4.6999000000000004</v>
+      </c>
+      <c r="X46">
+        <v>1.208</v>
+      </c>
+      <c r="Y46">
+        <v>4.0720000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>4.3550000000000004</v>
+      </c>
+      <c r="AA46">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="AB46">
+        <v>4.6550000000000002</v>
+      </c>
+      <c r="AC46">
+        <v>1.4988999999999999</v>
+      </c>
+      <c r="AD46">
+        <v>4.117</v>
+      </c>
+      <c r="AE46">
+        <v>3.8788</v>
+      </c>
+      <c r="AF46">
+        <v>3.1417999999999999</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH46">
+        <v>3.1236999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4096</v>
+      </c>
+      <c r="B47">
+        <f>SUM(T45:T49)/5</f>
+        <v>4.1031999999999993</v>
+      </c>
+      <c r="C47">
+        <f>SUM(U45:U49)/5</f>
+        <v>3.9702600000000006</v>
+      </c>
+      <c r="D47">
+        <f>SUM(V45:V49)/5</f>
+        <v>3.2763800000000005</v>
+      </c>
+      <c r="E47">
+        <f>SUM(W45:W49)/5</f>
+        <v>4.7423799999999998</v>
+      </c>
+      <c r="F47">
+        <f>SUM(X45:X49)/5</f>
+        <v>1.2037200000000001</v>
+      </c>
+      <c r="J47">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K47">
+        <v>3.6680000000000001</v>
+      </c>
+      <c r="L47">
+        <v>4.0350000000000001</v>
+      </c>
+      <c r="M47">
+        <v>4.7709000000000001</v>
+      </c>
+      <c r="N47">
+        <v>1.2242</v>
+      </c>
+      <c r="O47">
+        <v>4.1455000000000002</v>
+      </c>
+      <c r="P47">
+        <v>3.746</v>
+      </c>
+      <c r="Q47">
+        <v>3.5720000000000001</v>
+      </c>
+      <c r="R47">
+        <v>4.7519999999999998</v>
+      </c>
+      <c r="S47">
+        <v>1.2336</v>
+      </c>
+      <c r="T47">
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="U47">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="V47">
+        <v>3.2677</v>
+      </c>
+      <c r="W47">
+        <v>4.71</v>
+      </c>
+      <c r="X47">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="Y47">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="Z47">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>3.165</v>
+      </c>
+      <c r="AB47">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="AC47">
+        <v>1.5216000000000001</v>
+      </c>
+      <c r="AD47">
+        <v>4.1146000000000003</v>
+      </c>
+      <c r="AE47">
+        <v>3.8599000000000001</v>
+      </c>
+      <c r="AF47">
+        <v>3.1223999999999998</v>
+      </c>
+      <c r="AG47">
+        <v>4.8085000000000004</v>
+      </c>
+      <c r="AH47">
+        <v>1.901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16384</v>
+      </c>
+      <c r="B48">
+        <f>SUM(Y45:Y49)/5</f>
+        <v>4.1161399999999997</v>
+      </c>
+      <c r="C48">
+        <f>SUM(Z45:Z49)/5</f>
+        <v>3.9527200000000002</v>
+      </c>
+      <c r="D48">
+        <f>SUM(AA45:AA49)/5</f>
+        <v>2.7583599999999997</v>
+      </c>
+      <c r="E48">
+        <f>SUM(AB45:AB49)/5</f>
+        <v>4.7185000000000006</v>
+      </c>
+      <c r="F48">
+        <f>SUM(AC45:AC49)/5</f>
+        <v>1.5071400000000001</v>
+      </c>
+      <c r="J48">
+        <v>4.2055999999999996</v>
+      </c>
+      <c r="K48">
+        <v>3.6950500000000002</v>
+      </c>
+      <c r="L48">
+        <v>4.0860000000000003</v>
+      </c>
+      <c r="M48">
+        <v>4.8410000000000002</v>
+      </c>
+      <c r="N48">
+        <v>1.222</v>
+      </c>
+      <c r="O48">
+        <v>4.1440000000000001</v>
+      </c>
+      <c r="P48">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="Q48">
+        <v>3.4449000000000001</v>
+      </c>
+      <c r="R48">
+        <v>4.7586000000000004</v>
+      </c>
+      <c r="S48">
+        <v>1.2384999999999999</v>
+      </c>
+      <c r="T48">
+        <v>4.0964999999999998</v>
+      </c>
+      <c r="U48">
+        <v>3.7966000000000002</v>
+      </c>
+      <c r="V48">
+        <v>3.2675999999999998</v>
+      </c>
+      <c r="W48">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="X48">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="Y48">
+        <v>4.1520000000000001</v>
+      </c>
+      <c r="Z48">
+        <v>3.7850000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>1.1592</v>
+      </c>
+      <c r="AB48">
+        <v>4.7767999999999997</v>
+      </c>
+      <c r="AC48">
+        <v>1.5127999999999999</v>
+      </c>
+      <c r="AD48">
+        <v>4.069</v>
+      </c>
+      <c r="AE48">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="AF48">
+        <v>3.0840000000000001</v>
+      </c>
+      <c r="AG48">
+        <v>4.68</v>
+      </c>
+      <c r="AH48">
+        <v>1.897</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>32768</v>
+      </c>
+      <c r="B49">
+        <f>SUM(AD45:AD49)/5</f>
+        <v>4.0879199999999996</v>
+      </c>
+      <c r="C49">
+        <f>SUM(AE45:AE49)/5</f>
+        <v>3.8239199999999998</v>
+      </c>
+      <c r="D49">
+        <f>SUM(AF45:AF49)/5</f>
+        <v>3.1087199999999999</v>
+      </c>
+      <c r="E49">
+        <f>SUM(AG45:AG49)/4</f>
+        <v>4.7363750000000007</v>
+      </c>
+      <c r="F49">
+        <f>SUM(AH45:AH49)/5</f>
+        <v>2.1371199999999999</v>
+      </c>
+      <c r="J49">
+        <v>4.2057000000000002</v>
+      </c>
+      <c r="K49">
+        <v>3.6950599999999998</v>
+      </c>
+      <c r="L49">
+        <v>4.0857000000000001</v>
+      </c>
+      <c r="M49">
+        <v>4.8414000000000001</v>
+      </c>
+      <c r="N49">
+        <v>1.222</v>
+      </c>
+      <c r="O49">
+        <v>4.0717999999999996</v>
+      </c>
+      <c r="P49">
+        <v>3.8940000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="R49">
+        <v>4.7039999999999997</v>
+      </c>
+      <c r="S49">
+        <v>1.238</v>
+      </c>
+      <c r="T49">
+        <v>4.1280000000000001</v>
+      </c>
+      <c r="U49">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="V49">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="W49">
+        <v>4.7460000000000004</v>
+      </c>
+      <c r="X49">
+        <v>1.2056</v>
+      </c>
+      <c r="Y49">
+        <v>4.1067999999999998</v>
+      </c>
+      <c r="Z49">
+        <v>3.8485999999999998</v>
+      </c>
+      <c r="AA49">
+        <v>3.1185999999999998</v>
+      </c>
+      <c r="AB49">
+        <v>4.7080000000000002</v>
+      </c>
+      <c r="AC49">
+        <v>1.5085999999999999</v>
+      </c>
+      <c r="AD49">
+        <v>4.0519999999999996</v>
+      </c>
+      <c r="AE49">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="AF49">
+        <v>3.07</v>
+      </c>
+      <c r="AG49">
+        <v>4.7590000000000003</v>
+      </c>
+      <c r="AH49">
+        <v>1.8758999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1879,11 +5153,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
+  <dimension ref="A2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>512</v>
+      </c>
+      <c r="B4">
+        <v>2.6898000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2.7733999999999996</v>
+      </c>
+      <c r="D4">
+        <v>2.4561999999999999</v>
+      </c>
+      <c r="E4">
+        <v>2.9254000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.83779999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2048</v>
+      </c>
+      <c r="B5">
+        <v>2.6915999999999998</v>
+      </c>
+      <c r="C5">
+        <v>2.7367999999999997</v>
+      </c>
+      <c r="D5">
+        <v>2.3323999999999998</v>
+      </c>
+      <c r="E5">
+        <v>2.8711999999999995</v>
+      </c>
+      <c r="F5">
+        <v>0.86060000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4096</v>
+      </c>
+      <c r="B6">
+        <v>2.6766000000000001</v>
+      </c>
+      <c r="C6">
+        <v>2.7734000000000001</v>
+      </c>
+      <c r="D6">
+        <v>2.3308</v>
+      </c>
+      <c r="E6">
+        <v>2.88</v>
+      </c>
+      <c r="F6">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8192</v>
+      </c>
+      <c r="B7">
+        <v>2.6698</v>
+      </c>
+      <c r="C7">
+        <v>2.758</v>
+      </c>
+      <c r="D7">
+        <v>2.246</v>
+      </c>
+      <c r="E7">
+        <v>2.9171999999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.88840000000000008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16384</v>
+      </c>
+      <c r="B8">
+        <v>2.6982000000000004</v>
+      </c>
+      <c r="C8">
+        <v>2.7496</v>
+      </c>
+      <c r="D8">
+        <v>2.2152000000000003</v>
+      </c>
+      <c r="E8">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.0272000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>32768</v>
+      </c>
+      <c r="B9">
+        <v>2.6692</v>
+      </c>
+      <c r="C9">
+        <v>2.6420000000000003</v>
+      </c>
+      <c r="D9">
+        <v>2.1701999999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.9095999999999997</v>
+      </c>
+      <c r="F9">
+        <v>1.2809999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1065AF-407D-44E7-9C8D-A69DC8A74D29}">
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA41AB4-B27C-45F0-BA9D-3F442CC344CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401BA92-2354-4C4C-A4B9-23694F79750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="90" windowWidth="36855" windowHeight="14805" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="1530" yWindow="180" windowWidth="36855" windowHeight="14805" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>Blocksize</t>
   </si>
@@ -287,14 +287,27 @@
   </si>
   <si>
     <t>v4096</t>
+  </si>
+  <si>
+    <t>T2 micro</t>
+  </si>
+  <si>
+    <t>gp2 disk</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>b-81192</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -345,12 +358,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,7 +1170,834 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Micro</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Times in Seconds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$5:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2572500000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3167499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1784749999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1967400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2372750000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9384999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$5:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.8766500000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1167499999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.153975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0961400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1112500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8559000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$5:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0332499999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8313750000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7762599999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6841499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6152499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read dict from file</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$5:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0942499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0962499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0153749999999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0262000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetch records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$R$5:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7717499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2567500000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.4442000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3798000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6402250000000009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0894999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="626366760"/>
+        <c:axId val="626363160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626366760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626363160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626363160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626366760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1698,20 +2540,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33336</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1731,6 +3076,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89C6C12-49E3-8819-78A6-9B6998F8CFD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2038,16 +3419,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
   <dimension ref="A1:AN49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L4" sqref="L1:AH1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="34" width="9.140625" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="23" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="24" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -3233,26 +4618,26 @@
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>512</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <f>SUM(J21:J24)/4</f>
         <v>5.3167499999999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <f>SUM(K21:K24)/4</f>
         <v>5.1167499999999997</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <f>SUM(L21:L24)/4</f>
         <v>5.0332499999999998</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <f>SUM(M21:M24)/4</f>
         <v>6.0962499999999995</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <f>SUM(N21:N24)/4</f>
         <v>6.2567500000000003</v>
       </c>
@@ -3348,26 +4733,26 @@
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>128</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <f>SUM(O21:O24)/4</f>
         <v>5.2572500000000009</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f>SUM(P21:P24)/4</f>
         <v>4.8766500000000006</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <f>SUM(Q21:Q24)/4</f>
         <v>5.62</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <f>SUM(R21:R24)/4</f>
         <v>6.0942499999999997</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <f>SUM(S21:S24)/4</f>
         <v>5.7717499999999999</v>
       </c>
@@ -3463,26 +4848,26 @@
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>4096</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <f>SUM(T21:T25)/5</f>
         <v>5.1967400000000001</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f>SUM(U21:U25)/5</f>
         <v>5.0961400000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <f>SUM(V21:V25)/5</f>
         <v>4.7762599999999997</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <f>SUM(W21:W25)/5</f>
         <v>6.0262000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <f>SUM(X21:X25)/5</f>
         <v>5.3798000000000004</v>
       </c>
@@ -3578,26 +4963,26 @@
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>2048</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <f>SUM(Y21:Y25)/4</f>
         <v>5.1784749999999997</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f>SUM(Z21:Z25)/4</f>
         <v>5.153975</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <f>SUM(AA21:AA25)/4</f>
         <v>4.8313750000000004</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <f>SUM(AB21:AB25)/4</f>
         <v>6.0153749999999988</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <f>SUM(AC21:AC25)/4</f>
         <v>5.4442000000000004</v>
       </c>
@@ -3693,26 +5078,26 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>8192</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <f>SUM(AD21:AD25)/4</f>
         <v>5.2372750000000003</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f>SUM(AE21:AE25)/4</f>
         <v>5.1112500000000001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <f>SUM(AF21:AF25)/4</f>
         <v>4.6841499999999998</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <f>SUM(AG21:AG25)/4</f>
         <v>6.0602499999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <f>SUM(AH21:AH25)/4</f>
         <v>5.6402250000000009</v>
       </c>
@@ -3733,26 +5118,26 @@
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>16384</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <f>SUM(AI22:AI25)/4</f>
         <v>3.9384999999999999</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f>SUM(AJ21:AJ25)/4</f>
         <v>4.8559000000000001</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="5">
         <f>SUM(AK21:AK25)/4</f>
         <v>4.6152499999999996</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="5">
         <f>SUM(AL21:AL25)/4</f>
         <v>5.9375</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <f>SUM(AM21:AM25)/4</f>
         <v>6.0894999999999992</v>
       </c>
@@ -4419,8 +5804,14 @@
       <c r="J38" t="s">
         <v>7</v>
       </c>
+      <c r="O38" t="s">
+        <v>11</v>
+      </c>
       <c r="T38" t="s">
         <v>4</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -4441,11 +5832,11 @@
       </c>
       <c r="E39">
         <f>SUM(M39:M43)/5</f>
-        <v>4.1185999999999998</v>
+        <v>5.1724000000000006</v>
       </c>
       <c r="F39">
         <f>SUM(N39:N43)/5</f>
-        <v>1.0517999999999998</v>
+        <v>1.3215999999999999</v>
       </c>
       <c r="J39" s="4">
         <v>4.4870000000000001</v>
@@ -4462,6 +5853,21 @@
       <c r="N39">
         <v>1.2909999999999999</v>
       </c>
+      <c r="O39">
+        <v>4.5540000000000003</v>
+      </c>
+      <c r="P39">
+        <v>4.51</v>
+      </c>
+      <c r="Q39">
+        <v>3.5270000000000001</v>
+      </c>
+      <c r="R39">
+        <v>5.0949999999999998</v>
+      </c>
+      <c r="S39">
+        <v>1.3240000000000001</v>
+      </c>
       <c r="T39">
         <v>4.5129999999999999</v>
       </c>
@@ -4477,8 +5883,46 @@
       <c r="X39">
         <v>1.2629999999999999</v>
       </c>
+      <c r="Y39">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="Z39">
+        <v>3.8479999999999999</v>
+      </c>
+      <c r="AA39">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="AB39">
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="AC39">
+        <v>1.4279999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <f>SUM(O39:O43)/5</f>
+        <v>4.5587999999999997</v>
+      </c>
+      <c r="C40">
+        <f>SUM(P39:P43)/5</f>
+        <v>4.1722199999999994</v>
+      </c>
+      <c r="D40">
+        <f>SUM(Q39:Q43)/5</f>
+        <v>3.4170000000000003</v>
+      </c>
+      <c r="E40">
+        <f>SUM(R39:R43)/5</f>
+        <v>5.25434</v>
+      </c>
+      <c r="F40">
+        <f>SUM(S39:S43)/5</f>
+        <v>1.3409200000000001</v>
+      </c>
       <c r="J40">
         <v>5.0119999999999996</v>
       </c>
@@ -4493,6 +5937,21 @@
       </c>
       <c r="N40">
         <v>1.3120000000000001</v>
+      </c>
+      <c r="O40">
+        <v>4.532</v>
+      </c>
+      <c r="P40">
+        <v>4.3369999999999997</v>
+      </c>
+      <c r="Q40">
+        <v>3.383</v>
+      </c>
+      <c r="R40">
+        <v>5.1646999999999998</v>
+      </c>
+      <c r="S40">
+        <v>1.339</v>
       </c>
       <c r="T40">
         <v>4.415</v>
@@ -4549,6 +6008,21 @@
       <c r="N41">
         <v>1.3320000000000001</v>
       </c>
+      <c r="O41">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="P41">
+        <v>3.8654999999999999</v>
+      </c>
+      <c r="Q41">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="R41">
+        <v>5.282</v>
+      </c>
+      <c r="S41">
+        <v>1.345</v>
+      </c>
       <c r="T41">
         <v>5.15</v>
       </c>
@@ -4566,6 +6040,13 @@
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8192</v>
+      </c>
+      <c r="B42">
+        <f>SUM(Y39:Y43)</f>
+        <v>4.4950000000000001</v>
+      </c>
       <c r="J42">
         <v>4.3120000000000003</v>
       </c>
@@ -4580,6 +6061,21 @@
       </c>
       <c r="N42">
         <v>1.3240000000000001</v>
+      </c>
+      <c r="O42">
+        <v>4.4349999999999996</v>
+      </c>
+      <c r="P42">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="Q42">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="R42">
+        <v>5.48</v>
+      </c>
+      <c r="S42">
+        <v>1.35</v>
       </c>
       <c r="T42">
         <v>4.4829999999999997</v>
@@ -4607,6 +6103,27 @@
       <c r="L43">
         <v>3.621</v>
       </c>
+      <c r="M43">
+        <v>5.2690000000000001</v>
+      </c>
+      <c r="N43">
+        <v>1.349</v>
+      </c>
+      <c r="O43">
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="P43">
+        <v>3.8525999999999998</v>
+      </c>
+      <c r="Q43">
+        <v>3.38</v>
+      </c>
+      <c r="R43">
+        <v>5.25</v>
+      </c>
+      <c r="S43">
+        <v>1.3466</v>
+      </c>
       <c r="T43">
         <v>4.4729999999999999</v>
       </c>
@@ -4632,6 +6149,9 @@
       </c>
       <c r="J44" t="s">
         <v>78</v>
+      </c>
+      <c r="N44" t="s">
+        <v>85</v>
       </c>
       <c r="O44" t="s">
         <v>7</v>
@@ -5154,10 +6674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:F9"/>
+  <dimension ref="A2:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5165,12 +6685,18 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5190,7 +6716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
@@ -5209,8 +6735,26 @@
       <c r="F4">
         <v>0.83779999999999999</v>
       </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2048</v>
       </c>
@@ -5229,8 +6773,26 @@
       <c r="F5">
         <v>0.86060000000000014</v>
       </c>
+      <c r="M5">
+        <v>128</v>
+      </c>
+      <c r="N5">
+        <v>5.2572500000000009</v>
+      </c>
+      <c r="O5">
+        <v>4.8766500000000006</v>
+      </c>
+      <c r="P5">
+        <v>5.62</v>
+      </c>
+      <c r="Q5">
+        <v>6.0942499999999997</v>
+      </c>
+      <c r="R5">
+        <v>5.7717499999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4096</v>
       </c>
@@ -5249,8 +6811,26 @@
       <c r="F6">
         <v>0.8256</v>
       </c>
+      <c r="M6">
+        <v>512</v>
+      </c>
+      <c r="N6">
+        <v>5.3167499999999999</v>
+      </c>
+      <c r="O6">
+        <v>5.1167499999999997</v>
+      </c>
+      <c r="P6">
+        <v>5.0332499999999998</v>
+      </c>
+      <c r="Q6">
+        <v>6.0962499999999995</v>
+      </c>
+      <c r="R6">
+        <v>6.2567500000000003</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8192</v>
       </c>
@@ -5269,8 +6849,26 @@
       <c r="F7">
         <v>0.88840000000000008</v>
       </c>
+      <c r="M7">
+        <v>2048</v>
+      </c>
+      <c r="N7">
+        <v>5.1784749999999997</v>
+      </c>
+      <c r="O7">
+        <v>5.153975</v>
+      </c>
+      <c r="P7">
+        <v>4.8313750000000004</v>
+      </c>
+      <c r="Q7">
+        <v>6.0153749999999988</v>
+      </c>
+      <c r="R7">
+        <v>5.4442000000000004</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16384</v>
       </c>
@@ -5289,8 +6887,26 @@
       <c r="F8">
         <v>1.0272000000000001</v>
       </c>
+      <c r="M8">
+        <v>4096</v>
+      </c>
+      <c r="N8">
+        <v>5.1967400000000001</v>
+      </c>
+      <c r="O8">
+        <v>5.0961400000000001</v>
+      </c>
+      <c r="P8">
+        <v>4.7762599999999997</v>
+      </c>
+      <c r="Q8">
+        <v>6.0262000000000002</v>
+      </c>
+      <c r="R8">
+        <v>5.3798000000000004</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32768</v>
       </c>
@@ -5308,6 +6924,44 @@
       </c>
       <c r="F9">
         <v>1.2809999999999999</v>
+      </c>
+      <c r="M9">
+        <v>8192</v>
+      </c>
+      <c r="N9">
+        <v>5.2372750000000003</v>
+      </c>
+      <c r="O9">
+        <v>5.1112500000000001</v>
+      </c>
+      <c r="P9">
+        <v>4.6841499999999998</v>
+      </c>
+      <c r="Q9">
+        <v>6.0602499999999999</v>
+      </c>
+      <c r="R9">
+        <v>5.6402250000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>16384</v>
+      </c>
+      <c r="N10">
+        <v>3.9384999999999999</v>
+      </c>
+      <c r="O10">
+        <v>4.8559000000000001</v>
+      </c>
+      <c r="P10">
+        <v>4.6152499999999996</v>
+      </c>
+      <c r="Q10">
+        <v>5.9375</v>
+      </c>
+      <c r="R10">
+        <v>6.0894999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1401BA92-2354-4C4C-A4B9-23694F79750F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBFF4B-9FB0-4C67-90B1-FF0F835D7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="180" windowWidth="36855" windowHeight="14805" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="29580" yWindow="-120" windowWidth="36855" windowHeight="14745" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>Blocksize</t>
   </si>
@@ -298,7 +298,31 @@
     <t>su</t>
   </si>
   <si>
-    <t>b-81192</t>
+    <t>no Keyfile</t>
+  </si>
+  <si>
+    <t>keyfile</t>
+  </si>
+  <si>
+    <t>no key or Buffer</t>
+  </si>
+  <si>
+    <t>b512</t>
+  </si>
+  <si>
+    <t>gp2</t>
+  </si>
+  <si>
+    <t>b4096</t>
+  </si>
+  <si>
+    <t>gp3</t>
+  </si>
+  <si>
+    <t>512 logical sector 512 physical  buffered reads 256 MB/sec 100 IOPS</t>
+  </si>
+  <si>
+    <t>B-8192</t>
   </si>
 </sst>
 </file>
@@ -3417,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
-  <dimension ref="A1:AN49"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AD39" sqref="AD39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L37" sqref="L1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,9 +3454,7 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="23" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="24" max="34" width="9.140625" customWidth="1"/>
+    <col min="10" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -5811,7 +5833,10 @@
         <v>4</v>
       </c>
       <c r="Y38" t="s">
-        <v>86</v>
+        <v>21</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
@@ -5898,6 +5923,21 @@
       <c r="AC39">
         <v>1.4279999999999999</v>
       </c>
+      <c r="AD39">
+        <v>4.5309999999999997</v>
+      </c>
+      <c r="AE39">
+        <v>3.8919999999999999</v>
+      </c>
+      <c r="AF39">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="AG39">
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="AH39">
+        <v>2.1198000000000001</v>
+      </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -5968,6 +6008,21 @@
       <c r="X40">
         <v>1.266</v>
       </c>
+      <c r="AD40">
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="AE40">
+        <v>3.8769999999999998</v>
+      </c>
+      <c r="AF40">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="AG40">
+        <v>5.1890000000000001</v>
+      </c>
+      <c r="AH40">
+        <v>2.1059999999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -6038,6 +6093,21 @@
       <c r="X41">
         <v>1.2689999999999999</v>
       </c>
+      <c r="AD41">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="AE41">
+        <v>3.9350000000000001</v>
+      </c>
+      <c r="AF41">
+        <v>3.1440000000000001</v>
+      </c>
+      <c r="AG41">
+        <v>5.2169999999999996</v>
+      </c>
+      <c r="AH41">
+        <v>2.113</v>
+      </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -6092,8 +6162,46 @@
       <c r="X42">
         <v>1.264</v>
       </c>
+      <c r="AD42">
+        <v>4.577</v>
+      </c>
+      <c r="AE42">
+        <v>3.9102000000000001</v>
+      </c>
+      <c r="AF42">
+        <v>3.125</v>
+      </c>
+      <c r="AG42">
+        <v>5.1760000000000002</v>
+      </c>
+      <c r="AH42">
+        <v>2.1869999999999998</v>
+      </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>32768</v>
+      </c>
+      <c r="B43">
+        <f>SUM(AD39:AD43)/5</f>
+        <v>4.6126000000000005</v>
+      </c>
+      <c r="C43">
+        <f>SUM(AE39:AE43)/5</f>
+        <v>3.9402400000000002</v>
+      </c>
+      <c r="D43">
+        <f>SUM(AF39:AF43)/5</f>
+        <v>3.1519399999999997</v>
+      </c>
+      <c r="E43">
+        <f>SUM(AG39:AG43)/5</f>
+        <v>5.2187999999999999</v>
+      </c>
+      <c r="F43">
+        <f>SUM(AH39:AH43)/5</f>
+        <v>2.1332800000000001</v>
+      </c>
       <c r="J43">
         <v>4.5549999999999997</v>
       </c>
@@ -6138,6 +6246,21 @@
       </c>
       <c r="X43">
         <v>1.34</v>
+      </c>
+      <c r="AD43">
+        <v>4.5910000000000002</v>
+      </c>
+      <c r="AE43">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="AF43">
+        <v>3.1757</v>
+      </c>
+      <c r="AG43">
+        <v>5.0289999999999999</v>
+      </c>
+      <c r="AH43">
+        <v>2.1406000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -6664,6 +6787,512 @@
       </c>
       <c r="AH49">
         <v>1.8758999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+      <c r="T53" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>512</v>
+      </c>
+      <c r="B54">
+        <f>SUM(J54:J58)/5</f>
+        <v>1.1550999999999998</v>
+      </c>
+      <c r="C54">
+        <f>SUM(K54:K58)/5</f>
+        <v>1.0416799999999999</v>
+      </c>
+      <c r="D54">
+        <f>SUM(L54:L58)/5</f>
+        <v>1.0399799999999999</v>
+      </c>
+      <c r="J54">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="K54">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="L54">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="T54">
+        <v>1.3186</v>
+      </c>
+      <c r="U54">
+        <v>1.1777</v>
+      </c>
+      <c r="V54">
+        <v>1.18</v>
+      </c>
+      <c r="AD54">
+        <v>2.137</v>
+      </c>
+      <c r="AE54">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="AF54">
+        <v>2.0015999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K55">
+        <v>1.0465</v>
+      </c>
+      <c r="L55">
+        <v>1.042</v>
+      </c>
+      <c r="T55">
+        <v>1.30955</v>
+      </c>
+      <c r="U55">
+        <v>1.1969000000000001</v>
+      </c>
+      <c r="V55">
+        <v>1.1906000000000001</v>
+      </c>
+      <c r="AD55">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="AE55">
+        <v>2.016</v>
+      </c>
+      <c r="AF55">
+        <v>2.0150000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4096</v>
+      </c>
+      <c r="B56">
+        <f>SUM(T54:T58)/5</f>
+        <v>1.3118700000000001</v>
+      </c>
+      <c r="C56">
+        <f>SUM(U54:U58)/5</f>
+        <v>1.1939699999999998</v>
+      </c>
+      <c r="D56">
+        <f>SUM(V54:V58)/5</f>
+        <v>1.19278</v>
+      </c>
+      <c r="J56">
+        <v>1.1555</v>
+      </c>
+      <c r="K56">
+        <v>1.034</v>
+      </c>
+      <c r="L56">
+        <v>1.038</v>
+      </c>
+      <c r="T56">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="U56">
+        <v>1.1800999999999999</v>
+      </c>
+      <c r="V56">
+        <v>1.1819999999999999</v>
+      </c>
+      <c r="AD56">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="AE56">
+        <v>2.0015999999999998</v>
+      </c>
+      <c r="AF56">
+        <v>2.0002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="K57">
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="L57">
+        <v>1.0397000000000001</v>
+      </c>
+      <c r="T57">
+        <v>1.3311999999999999</v>
+      </c>
+      <c r="U57">
+        <v>1.2274499999999999</v>
+      </c>
+      <c r="V57">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="AD57">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="AE57">
+        <v>1.9901</v>
+      </c>
+      <c r="AF57">
+        <v>1.9970000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>1.145</v>
+      </c>
+      <c r="K58">
+        <v>1.0414000000000001</v>
+      </c>
+      <c r="L58">
+        <v>1.0371999999999999</v>
+      </c>
+      <c r="T58">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="U58">
+        <v>1.1877</v>
+      </c>
+      <c r="V58">
+        <v>1.1882999999999999</v>
+      </c>
+      <c r="AD58">
+        <v>2.0807000000000002</v>
+      </c>
+      <c r="AE58">
+        <v>1.964</v>
+      </c>
+      <c r="AF58">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>32768</v>
+      </c>
+      <c r="B59">
+        <f>SUM(AD54:AD58)/5</f>
+        <v>2.11374</v>
+      </c>
+      <c r="C59">
+        <f>SUM(AE54:AE58)/5</f>
+        <v>1.9949400000000002</v>
+      </c>
+      <c r="D59">
+        <f>SUM(AF54:AF58)/5</f>
+        <v>1.9947600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+      <c r="T61" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1.167</v>
+      </c>
+      <c r="K62">
+        <v>1.0437000000000001</v>
+      </c>
+      <c r="L62">
+        <v>1.0297000000000001</v>
+      </c>
+      <c r="T62">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="U62">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="V62">
+        <v>1.179</v>
+      </c>
+      <c r="Y62">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>1.3</v>
+      </c>
+      <c r="AD62">
+        <v>2.1198000000000001</v>
+      </c>
+      <c r="AE62">
+        <v>1.986</v>
+      </c>
+      <c r="AF62">
+        <v>1.9766999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>512</v>
+      </c>
+      <c r="B63">
+        <f>SUM(J62:J66)/5</f>
+        <v>1.13896</v>
+      </c>
+      <c r="C63">
+        <f>SUM(K62:K66)/5</f>
+        <v>1.0434380000000001</v>
+      </c>
+      <c r="D63">
+        <f>SUM(L62:L66)/5</f>
+        <v>1.04226</v>
+      </c>
+      <c r="J63">
+        <v>1.1477999999999999</v>
+      </c>
+      <c r="K63">
+        <v>1.0266999999999999</v>
+      </c>
+      <c r="L63">
+        <v>1.0261</v>
+      </c>
+      <c r="T63">
+        <v>1.2685</v>
+      </c>
+      <c r="U63">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="V63">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="Y63">
+        <v>1.403</v>
+      </c>
+      <c r="Z63">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="AA63">
+        <v>1.2845</v>
+      </c>
+      <c r="AD63">
+        <v>2.1059999999999999</v>
+      </c>
+      <c r="AE63">
+        <v>1.9802</v>
+      </c>
+      <c r="AF63">
+        <v>1.9799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>1.129</v>
+      </c>
+      <c r="K64">
+        <v>1.0206900000000001</v>
+      </c>
+      <c r="L64">
+        <v>1.0253000000000001</v>
+      </c>
+      <c r="T64">
+        <v>1.2805</v>
+      </c>
+      <c r="U64">
+        <v>1.1835</v>
+      </c>
+      <c r="V64">
+        <v>1.18</v>
+      </c>
+      <c r="Y64">
+        <v>1.3998999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>1.3025</v>
+      </c>
+      <c r="AA64">
+        <v>1.2991999999999999</v>
+      </c>
+      <c r="AD64">
+        <v>2.113</v>
+      </c>
+      <c r="AE64">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="AF64">
+        <v>1.992</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4096</v>
+      </c>
+      <c r="B65">
+        <f>SUM(T62:T66)/5</f>
+        <v>1.27834</v>
+      </c>
+      <c r="C65">
+        <f>SUM(U62:U66)/5</f>
+        <v>1.1700200000000001</v>
+      </c>
+      <c r="D65">
+        <f>SUM(V62:V66)/5</f>
+        <v>1.1673999999999998</v>
+      </c>
+      <c r="J65">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="K65">
+        <v>1.1087</v>
+      </c>
+      <c r="L65">
+        <v>1.1032999999999999</v>
+      </c>
+      <c r="T65">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="U65">
+        <v>1.167</v>
+      </c>
+      <c r="V65">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="Y65">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="Z65">
+        <v>1.3026</v>
+      </c>
+      <c r="AA65">
+        <v>1.3113999999999999</v>
+      </c>
+      <c r="AD65">
+        <v>2.1869999999999998</v>
+      </c>
+      <c r="AE65">
+        <v>2.0276000000000001</v>
+      </c>
+      <c r="AF65">
+        <v>2.0179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>8192</v>
+      </c>
+      <c r="B66">
+        <f>SUM(Y62:Y66)/5</f>
+        <v>1.4133799999999999</v>
+      </c>
+      <c r="C66">
+        <f>SUM(Z62:Z66)/5</f>
+        <v>1.3008200000000001</v>
+      </c>
+      <c r="D66">
+        <f>SUM(AA62:AA66)/5</f>
+        <v>1.3018000000000001</v>
+      </c>
+      <c r="J66">
+        <v>1.127</v>
+      </c>
+      <c r="K66">
+        <v>1.0174000000000001</v>
+      </c>
+      <c r="L66">
+        <v>1.0268999999999999</v>
+      </c>
+      <c r="T66">
+        <v>1.2555000000000001</v>
+      </c>
+      <c r="U66">
+        <v>1.1546000000000001</v>
+      </c>
+      <c r="V66">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>1.415</v>
+      </c>
+      <c r="Z66">
+        <v>1.3120000000000001</v>
+      </c>
+      <c r="AA66">
+        <v>1.3139000000000001</v>
+      </c>
+      <c r="AD66">
+        <v>2.1406000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>2.008</v>
+      </c>
+      <c r="AF66">
+        <v>2.0017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>32768</v>
+      </c>
+      <c r="B68">
+        <f>SUM(AD62:AD66)/5</f>
+        <v>2.1332800000000001</v>
+      </c>
+      <c r="C68">
+        <f>SUM(AE62:AE66)/5</f>
+        <v>1.9953600000000002</v>
+      </c>
+      <c r="D68">
+        <f>SUM(AF62:AF66)/5</f>
+        <v>1.9936399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EBFF4B-9FB0-4C67-90B1-FF0F835D7ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562AED4-92C4-4EFB-B112-79013FDF2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="-120" windowWidth="36855" windowHeight="14745" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="30195" yWindow="-120" windowWidth="25185" windowHeight="14685" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>Blocksize</t>
   </si>
@@ -323,6 +323,21 @@
   </si>
   <si>
     <t>B-8192</t>
+  </si>
+  <si>
+    <t>ios2</t>
+  </si>
+  <si>
+    <t>512 logical sector 512 physical  buffered reads 330 MB/sec 100 IOPS</t>
+  </si>
+  <si>
+    <t>lscp</t>
+  </si>
+  <si>
+    <t>io2</t>
+  </si>
+  <si>
+    <t>blocksize</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1048,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1121,6 +1136,121 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1820,7 +1950,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1908,6 +2038,671 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Random</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Access IO</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gp2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$33:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0416799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1939699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9949400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0119-4760-B3B8-616DFB008D0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gp3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$33:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0434380000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1700200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9953600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0119-4760-B3B8-616DFB008D0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>io2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$33:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$33:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98940000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1424799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9087399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0119-4760-B3B8-616DFB008D0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="582589432"/>
+        <c:axId val="582594112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="582589432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582594112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="582594112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="582589432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2022,6 +2817,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3067,6 +3902,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3077,9 +4415,9 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3108,15 +4446,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3136,6 +4474,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD97189-4C05-7F80-5590-75833079239B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3441,10 +4815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L37" sqref="L1:AD1048576"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3454,7 +4828,9 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="34" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="24" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="25" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -5815,6 +7191,9 @@
       <c r="A37" t="s">
         <v>65</v>
       </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
       <c r="D37" s="2" t="s">
         <v>76</v>
       </c>
@@ -6008,6 +7387,12 @@
       <c r="X40">
         <v>1.266</v>
       </c>
+      <c r="Z40">
+        <v>3.972</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>97</v>
+      </c>
       <c r="AD40">
         <v>4.5860000000000003</v>
       </c>
@@ -6806,6 +8191,9 @@
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
       <c r="B53" t="s">
         <v>87</v>
       </c>
@@ -7044,6 +8432,9 @@
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
       <c r="J62">
         <v>1.167</v>
       </c>
@@ -7293,6 +8684,284 @@
       <c r="D68">
         <f>SUM(AF62:AF66)/5</f>
         <v>1.9936399999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J71" t="s">
+        <v>89</v>
+      </c>
+      <c r="T71" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="K72">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="T72">
+        <v>1.325</v>
+      </c>
+      <c r="U72">
+        <v>1.1705000000000001</v>
+      </c>
+      <c r="V72">
+        <v>1.649</v>
+      </c>
+      <c r="Y72">
+        <v>1.395</v>
+      </c>
+      <c r="Z72">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="AD72">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="AE72">
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="AF72">
+        <v>1.9339999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>512</v>
+      </c>
+      <c r="B73">
+        <f>SUM(J72:J76)/5</f>
+        <v>1.0904800000000001</v>
+      </c>
+      <c r="C73">
+        <f>SUM(K72:K76)/5</f>
+        <v>0.98940000000000006</v>
+      </c>
+      <c r="D73">
+        <f>SUM(L72:L76)/5</f>
+        <v>0.98429999999999995</v>
+      </c>
+      <c r="J73">
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="K73">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L73">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="T73">
+        <v>1.216</v>
+      </c>
+      <c r="U73">
+        <v>1.115</v>
+      </c>
+      <c r="V73">
+        <v>1.113</v>
+      </c>
+      <c r="Y73">
+        <v>1.3204</v>
+      </c>
+      <c r="Z73">
+        <v>1.2184999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>1.2190000000000001</v>
+      </c>
+      <c r="AD73">
+        <v>2.032</v>
+      </c>
+      <c r="AE73">
+        <v>1.9330000000000001</v>
+      </c>
+      <c r="AF73">
+        <v>1.9315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>1.083</v>
+      </c>
+      <c r="K74">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="T74">
+        <v>1.26</v>
+      </c>
+      <c r="U74">
+        <v>1.1592</v>
+      </c>
+      <c r="V74">
+        <v>1.1588000000000001</v>
+      </c>
+      <c r="Y74">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="Z74">
+        <v>1.212</v>
+      </c>
+      <c r="AA74">
+        <v>1.212</v>
+      </c>
+      <c r="AD74">
+        <v>2.0222000000000002</v>
+      </c>
+      <c r="AE74">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="AF74">
+        <v>1.9256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4096</v>
+      </c>
+      <c r="B75">
+        <f>SUM(T72:T76)/5</f>
+        <v>1.2574999999999998</v>
+      </c>
+      <c r="C75">
+        <f>SUM(U72:U76)/5</f>
+        <v>1.1424799999999999</v>
+      </c>
+      <c r="D75">
+        <f>SUM(V72:V76)/5</f>
+        <v>1.2363</v>
+      </c>
+      <c r="J75">
+        <v>1.093</v>
+      </c>
+      <c r="K75">
+        <v>0.999</v>
+      </c>
+      <c r="L75">
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="T75">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="U75">
+        <v>1.1316999999999999</v>
+      </c>
+      <c r="V75">
+        <v>1.1287</v>
+      </c>
+      <c r="Y75">
+        <v>1.349</v>
+      </c>
+      <c r="Z75">
+        <v>1.2270000000000001</v>
+      </c>
+      <c r="AA75">
+        <v>1.2298</v>
+      </c>
+      <c r="AD75">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="AE75">
+        <v>1.9036999999999999</v>
+      </c>
+      <c r="AF75">
+        <v>1.9103000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8192</v>
+      </c>
+      <c r="B76">
+        <f>SUM(Y72:Y76)/5</f>
+        <v>1.34528</v>
+      </c>
+      <c r="C76">
+        <f>SUM(Z72:Z76)/5</f>
+        <v>1.2258599999999999</v>
+      </c>
+      <c r="D76">
+        <f>SUM(AA72:AA76)/5</f>
+        <v>1.2261799999999998</v>
+      </c>
+      <c r="J76">
+        <v>1.1004</v>
+      </c>
+      <c r="K76">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="T76">
+        <v>1.2395</v>
+      </c>
+      <c r="U76">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="V76">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="Y76">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="Z76">
+        <v>1.2108000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>1.2111000000000001</v>
+      </c>
+      <c r="AD76">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="AE76">
+        <v>1.857</v>
+      </c>
+      <c r="AF76">
+        <v>1.8476999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>32768</v>
+      </c>
+      <c r="B78">
+        <f>SUM(AD72:AD76)/5</f>
+        <v>2.0150399999999999</v>
+      </c>
+      <c r="C78">
+        <f>SUM(AE72:AE76)/5</f>
+        <v>1.9087399999999999</v>
+      </c>
+      <c r="D78">
+        <f>SUM(AF72:AF76)/5</f>
+        <v>1.9098200000000003</v>
       </c>
     </row>
   </sheetData>
@@ -7303,10 +8972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:R10"/>
+  <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7591,6 +9260,221 @@
       </c>
       <c r="R10">
         <v>6.0894999999999992</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>512</v>
+      </c>
+      <c r="C33">
+        <v>1.0416799999999999</v>
+      </c>
+      <c r="D33">
+        <v>1.0434380000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.98940000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4096</v>
+      </c>
+      <c r="C34">
+        <v>1.1939699999999998</v>
+      </c>
+      <c r="D34">
+        <v>1.1700200000000001</v>
+      </c>
+      <c r="E34">
+        <v>1.1424799999999999</v>
+      </c>
+      <c r="N34" t="s">
+        <v>90</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s">
+        <v>86</v>
+      </c>
+      <c r="R34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>32768</v>
+      </c>
+      <c r="C35">
+        <v>1.9949400000000002</v>
+      </c>
+      <c r="D35">
+        <v>1.9953600000000002</v>
+      </c>
+      <c r="E35">
+        <v>1.9087399999999999</v>
+      </c>
+      <c r="N35">
+        <v>512</v>
+      </c>
+      <c r="O35">
+        <v>1.1550999999999998</v>
+      </c>
+      <c r="P35">
+        <v>1.0416799999999999</v>
+      </c>
+      <c r="R35">
+        <v>512</v>
+      </c>
+      <c r="S35">
+        <v>1.13896</v>
+      </c>
+      <c r="T35">
+        <v>1.0434380000000001</v>
+      </c>
+      <c r="U35">
+        <v>1.04226</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>4096</v>
+      </c>
+      <c r="O37">
+        <v>1.3118700000000001</v>
+      </c>
+      <c r="P37">
+        <v>1.1939699999999998</v>
+      </c>
+      <c r="R37">
+        <v>4096</v>
+      </c>
+      <c r="S37">
+        <v>1.27834</v>
+      </c>
+      <c r="T37">
+        <v>1.1700200000000001</v>
+      </c>
+      <c r="U37">
+        <v>1.1673999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <v>8192</v>
+      </c>
+      <c r="S38">
+        <v>1.4133799999999999</v>
+      </c>
+      <c r="T38">
+        <v>1.3008200000000001</v>
+      </c>
+      <c r="U38">
+        <v>1.3018000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>32768</v>
+      </c>
+      <c r="O40">
+        <v>2.11374</v>
+      </c>
+      <c r="P40">
+        <v>1.9949400000000002</v>
+      </c>
+      <c r="R40">
+        <v>32768</v>
+      </c>
+      <c r="S40">
+        <v>2.1332800000000001</v>
+      </c>
+      <c r="T40">
+        <v>1.9953600000000002</v>
+      </c>
+      <c r="U40">
+        <v>1.9936399999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>512</v>
+      </c>
+      <c r="S43">
+        <v>1.0904800000000001</v>
+      </c>
+      <c r="T43">
+        <v>0.98940000000000006</v>
+      </c>
+      <c r="U43">
+        <v>0.98429999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>4096</v>
+      </c>
+      <c r="S45">
+        <v>1.2574999999999998</v>
+      </c>
+      <c r="T45">
+        <v>1.1424799999999999</v>
+      </c>
+      <c r="U45">
+        <v>1.2363</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>8192</v>
+      </c>
+      <c r="S46">
+        <v>1.34528</v>
+      </c>
+      <c r="T46">
+        <v>1.2258599999999999</v>
+      </c>
+      <c r="U46">
+        <v>1.2261799999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>32768</v>
+      </c>
+      <c r="S48">
+        <v>2.0150399999999999</v>
+      </c>
+      <c r="T48">
+        <v>1.9087399999999999</v>
+      </c>
+      <c r="U48">
+        <v>1.9098200000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7562AED4-92C4-4EFB-B112-79013FDF2CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E09BA9-7EB2-4CC9-BB79-AB64A64406B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="-120" windowWidth="25185" windowHeight="14685" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="2265" yWindow="-225" windowWidth="44640" windowHeight="14685" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
   <si>
     <t>Blocksize</t>
   </si>
@@ -339,6 +339,21 @@
   <si>
     <t>blocksize</t>
   </si>
+  <si>
+    <t>t2 micro</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>t3 Large</t>
+  </si>
+  <si>
+    <t>d3 xlarge</t>
+  </si>
+  <si>
+    <t>t3 large</t>
+  </si>
 </sst>
 </file>
 
@@ -825,7 +840,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1727,7 +1742,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2322,9 +2337,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="48000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="97000"/>
+                    <a:lumOff val="3000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2388,9 +2423,31 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="35000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="0"/>
+                    <a:lumOff val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+              </a:path>
+              <a:tileRect/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2454,9 +2511,29 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="67000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="48000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="97000"/>
+                    <a:lumOff val="3000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2776,6 +2853,556 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Processing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time To Build Dictionary</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2 micro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$65:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1882000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9B7-42CA-BA0C-D7A888B28B7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t3 large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$65:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5595400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5784000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5249999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9B7-42CA-BA0C-D7A888B28B7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d3 xlarge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$65:$P$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.1179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1031999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0879199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A9B7-42CA-BA0C-D7A888B28B7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="679547096"/>
+        <c:axId val="679547456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="679547096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679547456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="679547456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679547096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2896,6 +3523,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3903,6 +4570,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4510,6 +5680,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14C9B38-8B25-8CE4-973B-70C0B29407F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4817,8 +6023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
   <dimension ref="A1:AN78"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4828,9 +6034,7 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="24" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="25" max="34" width="9.140625" customWidth="1"/>
+    <col min="10" max="34" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -6817,8 +8021,8 @@
         <v>4096</v>
       </c>
       <c r="B32">
-        <f>SUM(T31:T35)/5</f>
-        <v>3.621</v>
+        <f>SUM(T30:T35)/5</f>
+        <v>4.5784000000000002</v>
       </c>
       <c r="C32">
         <f>SUM(U31:U35)/5</f>
@@ -8972,10 +10176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:U48"/>
+  <dimension ref="A2:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9475,6 +10679,276 @@
       </c>
       <c r="U48">
         <v>1.9098200000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>101</v>
+      </c>
+      <c r="U58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" t="s">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>2</v>
+      </c>
+      <c r="R59" t="s">
+        <v>3</v>
+      </c>
+      <c r="S59" t="s">
+        <v>47</v>
+      </c>
+      <c r="U59" t="s">
+        <v>0</v>
+      </c>
+      <c r="V59" t="s">
+        <v>1</v>
+      </c>
+      <c r="W59" t="s">
+        <v>15</v>
+      </c>
+      <c r="X59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>512</v>
+      </c>
+      <c r="O60">
+        <v>5.5617999999999999</v>
+      </c>
+      <c r="P60">
+        <v>5.1250000000000009</v>
+      </c>
+      <c r="Q60">
+        <v>4.7493999999999996</v>
+      </c>
+      <c r="R60">
+        <v>6.4043999999999999</v>
+      </c>
+      <c r="S60">
+        <v>6.8653999999999993</v>
+      </c>
+      <c r="U60">
+        <v>512</v>
+      </c>
+      <c r="V60">
+        <v>4.5595400000000001</v>
+      </c>
+      <c r="W60">
+        <v>3.8302</v>
+      </c>
+      <c r="X60">
+        <v>3.4728000000000003</v>
+      </c>
+      <c r="Y60">
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="Z60">
+        <v>1.3031999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>100</v>
+      </c>
+      <c r="N61">
+        <v>4096</v>
+      </c>
+      <c r="O61">
+        <v>5.4916</v>
+      </c>
+      <c r="P61">
+        <v>5.1626000000000003</v>
+      </c>
+      <c r="Q61">
+        <v>4.5094000000000003</v>
+      </c>
+      <c r="R61">
+        <v>6.2915999999999999</v>
+      </c>
+      <c r="S61">
+        <v>5.846000000000001</v>
+      </c>
+      <c r="U61">
+        <v>4096</v>
+      </c>
+      <c r="V61">
+        <v>3.621</v>
+      </c>
+      <c r="W61">
+        <v>3.1248</v>
+      </c>
+      <c r="X61">
+        <v>2.6332</v>
+      </c>
+      <c r="Y61">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="Z61">
+        <v>1.0287999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>32678</v>
+      </c>
+      <c r="O62">
+        <v>5.1882000000000001</v>
+      </c>
+      <c r="P62">
+        <v>5.0957999999999997</v>
+      </c>
+      <c r="Q62">
+        <v>4.2060000000000004</v>
+      </c>
+      <c r="R62">
+        <v>6.0013999999999994</v>
+      </c>
+      <c r="S62">
+        <v>7.4653999999999998</v>
+      </c>
+      <c r="U62">
+        <v>32768</v>
+      </c>
+      <c r="V62">
+        <v>4.5249999999999995</v>
+      </c>
+      <c r="W62">
+        <v>3.8957999999999999</v>
+      </c>
+      <c r="X62">
+        <v>3.1145999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>5.1372</v>
+      </c>
+      <c r="Z62">
+        <v>2.0103999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>100</v>
+      </c>
+      <c r="O64" t="s">
+        <v>104</v>
+      </c>
+      <c r="P64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>512</v>
+      </c>
+      <c r="N65">
+        <v>5.5617999999999999</v>
+      </c>
+      <c r="O65">
+        <v>4.5595400000000001</v>
+      </c>
+      <c r="P65">
+        <v>4.1179600000000001</v>
+      </c>
+      <c r="U65">
+        <v>512</v>
+      </c>
+      <c r="V65">
+        <v>4.1179600000000001</v>
+      </c>
+      <c r="W65">
+        <v>3.8906000000000005</v>
+      </c>
+      <c r="X65">
+        <v>3.5391800000000004</v>
+      </c>
+      <c r="Y65">
+        <v>4.7377200000000004</v>
+      </c>
+      <c r="Z65">
+        <v>1.23508</v>
+      </c>
+    </row>
+    <row r="66" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>4096</v>
+      </c>
+      <c r="N66">
+        <v>5.4916</v>
+      </c>
+      <c r="O66">
+        <v>4.5784000000000002</v>
+      </c>
+      <c r="P66">
+        <v>4.1031999999999993</v>
+      </c>
+      <c r="U66">
+        <v>4096</v>
+      </c>
+      <c r="V66">
+        <v>4.1031999999999993</v>
+      </c>
+      <c r="W66">
+        <v>3.9702600000000006</v>
+      </c>
+      <c r="X66">
+        <v>3.2763800000000005</v>
+      </c>
+      <c r="Y66">
+        <v>4.7423799999999998</v>
+      </c>
+      <c r="Z66">
+        <v>1.2037200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="13:26" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>32678</v>
+      </c>
+      <c r="N67">
+        <v>5.1882000000000001</v>
+      </c>
+      <c r="O67">
+        <v>4.5249999999999995</v>
+      </c>
+      <c r="P67">
+        <v>4.0879199999999996</v>
+      </c>
+      <c r="U67">
+        <v>32768</v>
+      </c>
+      <c r="V67">
+        <v>4.0879199999999996</v>
+      </c>
+      <c r="W67">
+        <v>3.8239199999999998</v>
+      </c>
+      <c r="X67">
+        <v>3.1087199999999999</v>
+      </c>
+      <c r="Y67">
+        <v>4.7363750000000007</v>
+      </c>
+      <c r="Z67">
+        <v>2.1371199999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E09BA9-7EB2-4CC9-BB79-AB64A64406B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFF66-0D80-460B-826E-0A068E512BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="-225" windowWidth="44640" windowHeight="14685" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="4230" yWindow="-180" windowWidth="30345" windowHeight="15345" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
   <si>
     <t>Blocksize</t>
   </si>
@@ -354,14 +354,39 @@
   <si>
     <t>t3 large</t>
   </si>
+  <si>
+    <t>i4ixlarge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 logical sector 512 physical  (512 optimal) buffered reads 1050 MB/sec </t>
+  </si>
+  <si>
+    <t>fetch nokey</t>
+  </si>
+  <si>
+    <t>b2048</t>
+  </si>
+  <si>
+    <t>i4 xlarge</t>
+  </si>
+  <si>
+    <t>t3 io2</t>
+  </si>
+  <si>
+    <t>i4 (nitro)</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -412,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +445,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1089,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1106,7 +1132,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1122,7 +1148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2008,7 +2034,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2024,7 +2050,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3403,6 +3429,1004 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time to Build Dictionary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$N$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2 micro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$65:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.5617999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1882000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C7AC-44C9-8901-026950E42FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$O$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t3 large</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$O$65:$O$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5595400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5784000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5249999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C7AC-44C9-8901-026950E42FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$P$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d3 xlarge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$P$65:$P$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.1179600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1031999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0879199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C7AC-44C9-8901-026950E42FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Q$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i4 xlarge</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$65:$M$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$65:$Q$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.27128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2439799999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.25298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C7AC-44C9-8901-026950E42FC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="620035448"/>
+        <c:axId val="620034728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620035448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620034728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620034728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620035448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random IO while reading keys</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t3 io2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$61:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$61:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0904800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2574999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0150399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4201-4F09-9F52-6199780A3A95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$61:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$61:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.23508</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2037200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1371199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4201-4F09-9F52-6199780A3A95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>i4 (nitro)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$A$61:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$61:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.75616000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4287599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4201-4F09-9F52-6199780A3A95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="620177192"/>
+        <c:axId val="620178632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="620177192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620178632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620178632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620177192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3563,6 +4587,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -5073,6 +6177,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5615,16 +7725,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5687,16 +7797,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5716,6 +7826,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3DB3EA-9359-4C64-9B8E-EEA0C4598F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B8DD9C1-F4B7-D0BC-5DE6-B2C87FA104BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6021,10 +8203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
-  <dimension ref="A1:AN78"/>
+  <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6034,7 +8216,12 @@
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="10" max="34" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="34" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="35" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -10166,6 +12353,432 @@
       <c r="D78">
         <f>SUM(AF72:AF76)/5</f>
         <v>1.9098200000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>47</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" t="s">
+        <v>75</v>
+      </c>
+      <c r="P82" t="s">
+        <v>89</v>
+      </c>
+      <c r="V82" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH82">
+        <v>8192</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>128</v>
+      </c>
+      <c r="P83">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="Q83">
+        <v>2.972</v>
+      </c>
+      <c r="R83">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="S83">
+        <v>3.74</v>
+      </c>
+      <c r="T83">
+        <v>0.752</v>
+      </c>
+      <c r="U83">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="AB83">
+        <v>3.2223999999999999</v>
+      </c>
+      <c r="AC83">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="AD83">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="AE83">
+        <v>3.6688000000000001</v>
+      </c>
+      <c r="AF83">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AG83">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="AT83" s="7">
+        <v>3.282</v>
+      </c>
+      <c r="AU83">
+        <v>3.0125000000000002</v>
+      </c>
+      <c r="AV83">
+        <v>2.4045000000000001</v>
+      </c>
+      <c r="AW83">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="AX83">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="AY83">
+        <v>1.3429</v>
+      </c>
+    </row>
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>512</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:G84" si="0">SUM(P83:P87)/5</f>
+        <v>3.27128</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="0"/>
+        <v>2.9648600000000003</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>2.7697600000000002</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="0"/>
+        <v>3.7330399999999999</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="0"/>
+        <v>0.75616000000000005</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="0"/>
+        <v>0.66701199999999994</v>
+      </c>
+      <c r="P84">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="Q84">
+        <v>2.9470000000000001</v>
+      </c>
+      <c r="R84">
+        <v>2.7519999999999998</v>
+      </c>
+      <c r="S84">
+        <v>3.6795</v>
+      </c>
+      <c r="T84">
+        <v>0.752</v>
+      </c>
+      <c r="U84">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AB84">
+        <v>3.2726999999999999</v>
+      </c>
+      <c r="AC84">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="AD84">
+        <v>2.5346000000000002</v>
+      </c>
+      <c r="AE84">
+        <v>3.633</v>
+      </c>
+      <c r="AF84">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="AG84">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="AT84" s="7">
+        <v>3.2124999999999999</v>
+      </c>
+      <c r="AU84">
+        <v>3.0409999999999999</v>
+      </c>
+      <c r="AV84">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="AW84">
+        <v>3.6215000000000002</v>
+      </c>
+      <c r="AX84">
+        <v>1.4602999999999999</v>
+      </c>
+      <c r="AY84">
+        <v>1.353</v>
+      </c>
+    </row>
+    <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="P85">
+        <v>3.415</v>
+      </c>
+      <c r="Q85">
+        <v>3.0013000000000001</v>
+      </c>
+      <c r="R85">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="S85">
+        <v>3.7959999999999998</v>
+      </c>
+      <c r="T85">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="U85">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="AB85">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="AC85">
+        <v>3.0139999999999998</v>
+      </c>
+      <c r="AD85">
+        <v>2.5013999999999998</v>
+      </c>
+      <c r="AE85">
+        <v>3.7124999999999999</v>
+      </c>
+      <c r="AF85">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AG85">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="AT85" s="7">
+        <v>3.3037000000000001</v>
+      </c>
+      <c r="AU85">
+        <v>3.0527000000000002</v>
+      </c>
+      <c r="AV85">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="AW85">
+        <v>3.6697000000000002</v>
+      </c>
+      <c r="AX85">
+        <v>1.3975</v>
+      </c>
+      <c r="AY85">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4096</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86:G86" si="1">SUM(AB83:AB87)/5</f>
+        <v>3.2439799999999996</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>3.0391199999999996</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>2.5150399999999999</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>3.66608</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>0.85816000000000003</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>0.76382000000000005</v>
+      </c>
+      <c r="P86">
+        <v>3.2435999999999998</v>
+      </c>
+      <c r="Q86">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="R86">
+        <v>2.6998000000000002</v>
+      </c>
+      <c r="S86">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="T86">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="U86">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="AB86">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AC86">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="AD86">
+        <v>2.5005000000000002</v>
+      </c>
+      <c r="AE86">
+        <v>3.6093999999999999</v>
+      </c>
+      <c r="AF86">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="AG86">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AT86" s="7">
+        <v>3.2286999999999999</v>
+      </c>
+      <c r="AU86">
+        <v>3.0186000000000002</v>
+      </c>
+      <c r="AV86">
+        <v>2.3946000000000001</v>
+      </c>
+      <c r="AW86">
+        <v>3.5844</v>
+      </c>
+      <c r="AX86">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="AY86">
+        <v>1.3286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8192</v>
+      </c>
+      <c r="P87">
+        <v>3.2477999999999998</v>
+      </c>
+      <c r="Q87">
+        <v>2.9420000000000002</v>
+      </c>
+      <c r="R87">
+        <v>2.726</v>
+      </c>
+      <c r="S87">
+        <v>3.7856999999999998</v>
+      </c>
+      <c r="T87">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="U87">
+        <v>0.64525999999999994</v>
+      </c>
+      <c r="AB87">
+        <v>3.2357999999999998</v>
+      </c>
+      <c r="AC87">
+        <v>3.0375999999999999</v>
+      </c>
+      <c r="AD87">
+        <v>2.5047000000000001</v>
+      </c>
+      <c r="AE87">
+        <v>3.7067000000000001</v>
+      </c>
+      <c r="AF87">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="AG87">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="AT87" s="7">
+        <v>3.238</v>
+      </c>
+      <c r="AU87">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="AV87">
+        <v>2.4036</v>
+      </c>
+      <c r="AW87">
+        <v>3.6669999999999998</v>
+      </c>
+      <c r="AX87">
+        <v>1.427</v>
+      </c>
+      <c r="AY87">
+        <v>1.359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>32768</v>
+      </c>
+      <c r="B89">
+        <f>SUM(AT83:AT87)/5</f>
+        <v>3.25298</v>
+      </c>
+      <c r="C89">
+        <f>SUM(AU83:AU87)/5</f>
+        <v>3.0285600000000001</v>
+      </c>
+      <c r="D89">
+        <f>SUM(AV83:AV87)/5</f>
+        <v>2.4087400000000003</v>
+      </c>
+      <c r="E89">
+        <f>SUM(AW83:AW87)/5</f>
+        <v>3.6267200000000002</v>
+      </c>
+      <c r="F89">
+        <f>SUM(AX83:AX87)/5</f>
+        <v>1.4287599999999998</v>
+      </c>
+      <c r="G89">
+        <f>SUM(AY83:AY87)/5</f>
+        <v>1.3405</v>
       </c>
     </row>
   </sheetData>
@@ -10178,8 +12791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
   <dimension ref="A2:Z67"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10681,7 +13294,7 @@
         <v>1.9098200000000003</v>
       </c>
     </row>
-    <row r="58" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O58" t="s">
         <v>101</v>
       </c>
@@ -10689,7 +13302,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N59" t="s">
         <v>0</v>
       </c>
@@ -10727,7 +13340,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D60" t="s">
+        <v>111</v>
+      </c>
       <c r="N60">
         <v>512</v>
       </c>
@@ -10765,7 +13387,19 @@
         <v>1.3031999999999999</v>
       </c>
     </row>
-    <row r="61" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>512</v>
+      </c>
+      <c r="B61">
+        <v>1.0904800000000001</v>
+      </c>
+      <c r="C61">
+        <v>1.23508</v>
+      </c>
+      <c r="D61">
+        <v>0.75616000000000005</v>
+      </c>
       <c r="M61" t="s">
         <v>100</v>
       </c>
@@ -10806,7 +13440,19 @@
         <v>1.0287999999999999</v>
       </c>
     </row>
-    <row r="62" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4096</v>
+      </c>
+      <c r="B62">
+        <v>1.2574999999999998</v>
+      </c>
+      <c r="C62">
+        <v>1.2037200000000001</v>
+      </c>
+      <c r="D62">
+        <v>0.85816000000000003</v>
+      </c>
       <c r="N62">
         <v>32678</v>
       </c>
@@ -10844,7 +13490,24 @@
         <v>2.0103999999999997</v>
       </c>
     </row>
-    <row r="64" spans="13:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>32768</v>
+      </c>
+      <c r="B63">
+        <v>2.0150399999999999</v>
+      </c>
+      <c r="C63">
+        <v>2.1371199999999999</v>
+      </c>
+      <c r="D63">
+        <v>1.4287599999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>1</v>
+      </c>
       <c r="N64" t="s">
         <v>100</v>
       </c>
@@ -10853,6 +13516,9 @@
       </c>
       <c r="P64" t="s">
         <v>103</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="13:26" x14ac:dyDescent="0.25">
@@ -10868,6 +13534,9 @@
       <c r="P65">
         <v>4.1179600000000001</v>
       </c>
+      <c r="Q65">
+        <v>3.27128</v>
+      </c>
       <c r="U65">
         <v>512</v>
       </c>
@@ -10900,6 +13569,9 @@
       <c r="P66">
         <v>4.1031999999999993</v>
       </c>
+      <c r="Q66">
+        <v>3.2439799999999996</v>
+      </c>
       <c r="U66">
         <v>4096</v>
       </c>
@@ -10931,6 +13603,9 @@
       </c>
       <c r="P67">
         <v>4.0879199999999996</v>
+      </c>
+      <c r="Q67">
+        <v>3.25298</v>
       </c>
       <c r="U67">
         <v>32768</v>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DFF66-0D80-460B-826E-0A068E512BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FBC56-46E6-4394-A44B-04254417C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="-180" windowWidth="30345" windowHeight="15345" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="25125" yWindow="1080" windowWidth="30345" windowHeight="15345" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>Blocksize</t>
   </si>
@@ -378,6 +378,24 @@
   <si>
     <t>D3</t>
   </si>
+  <si>
+    <t>Nitro</t>
+  </si>
+  <si>
+    <t>Write dict</t>
+  </si>
+  <si>
+    <t>Build Database</t>
+  </si>
+  <si>
+    <t>Read Dict</t>
+  </si>
+  <si>
+    <t>Fetch Records</t>
+  </si>
+  <si>
+    <t>Build Dict</t>
+  </si>
 </sst>
 </file>
 
@@ -1115,6 +1133,7 @@
         <c:axId val="460801560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3901,7 +3920,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -4327,7 +4346,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -4366,7 +4385,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -4415,6 +4434,894 @@
             <a:schemeClr val="bg1"/>
           </a:solidFill>
         </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>I4 Xlarge</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$W$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build Dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$V$5:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$W$5:$W$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.27128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2580399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2439799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2311799999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2535000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.25298</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA64-4040-812A-73AD443C9AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Write dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$V$5:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$X$5:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9648600000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3477599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0391199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0519400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0275399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0285600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA64-4040-812A-73AD443C9AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Y$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Build Database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$V$5:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Y$5:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.7697600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5453199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5150399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.46862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4354799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4087400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FA64-4040-812A-73AD443C9AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$Z$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Read Dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$V$5:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Z$5:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7330399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5632199999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.66608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6358200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6492999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6267200000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FA64-4040-812A-73AD443C9AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AA$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fetch Records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$V$5:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AA$5:$AA$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.75616000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80831999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85816000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93990000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4287599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FA64-4040-812A-73AD443C9AE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="273476352"/>
+        <c:axId val="273482472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="273476352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273482472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273482472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273476352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4667,6 +5574,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -7183,6 +8130,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7725,16 +9175,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7898,6 +9348,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6272D14D-E54C-57A6-1567-B9D4F5C3B9AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8205,8 +9691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
   <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8217,11 +9703,9 @@
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="9.140625" customWidth="1"/>
-    <col min="19" max="34" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="35" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="39" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="40" max="45" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -12359,6 +13843,9 @@
       <c r="A81" t="s">
         <v>105</v>
       </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
       <c r="D81" s="2" t="s">
         <v>106</v>
       </c>
@@ -12411,6 +13898,10 @@
       <c r="A83">
         <v>128</v>
       </c>
+      <c r="B83">
+        <f>SUM(J83:J87)/5</f>
+        <v>0</v>
+      </c>
       <c r="P83">
         <v>3.2210000000000001</v>
       </c>
@@ -12429,6 +13920,24 @@
       <c r="U83">
         <v>0.67020000000000002</v>
       </c>
+      <c r="V83">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="W83">
+        <v>3.0179999999999998</v>
+      </c>
+      <c r="X83">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="Y83">
+        <v>3.2738999999999998</v>
+      </c>
+      <c r="Z83">
+        <v>0.79369999999999996</v>
+      </c>
+      <c r="AA83">
+        <v>0.72099999999999997</v>
+      </c>
       <c r="AB83">
         <v>3.2223999999999999</v>
       </c>
@@ -12446,6 +13955,42 @@
       </c>
       <c r="AG83">
         <v>0.76100000000000001</v>
+      </c>
+      <c r="AH83">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="AI83">
+        <v>3.052</v>
+      </c>
+      <c r="AJ83">
+        <v>2.4239999999999999</v>
+      </c>
+      <c r="AK83">
+        <v>3.5800999999999998</v>
+      </c>
+      <c r="AL83">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="AM83">
+        <v>0.83</v>
+      </c>
+      <c r="AN83">
+        <v>3.2307999999999999</v>
+      </c>
+      <c r="AO83">
+        <v>3.0019999999999998</v>
+      </c>
+      <c r="AP83">
+        <v>2.423</v>
+      </c>
+      <c r="AQ83">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="AR83">
+        <v>1.1137999999999999</v>
+      </c>
+      <c r="AS83">
+        <v>1.0089999999999999</v>
       </c>
       <c r="AT83" s="7">
         <v>3.282</v>
@@ -12512,6 +14057,24 @@
       <c r="U84">
         <v>0.66900000000000004</v>
       </c>
+      <c r="V84">
+        <v>3.2263000000000002</v>
+      </c>
+      <c r="W84">
+        <v>3.1240000000000001</v>
+      </c>
+      <c r="X84">
+        <v>2.5737999999999999</v>
+      </c>
+      <c r="Y84">
+        <v>3.6255999999999999</v>
+      </c>
+      <c r="Z84">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="AA84">
+        <v>0.71499999999999997</v>
+      </c>
       <c r="AB84">
         <v>3.2726999999999999</v>
       </c>
@@ -12530,6 +14093,42 @@
       <c r="AG84">
         <v>0.76200000000000001</v>
       </c>
+      <c r="AH84">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AI84">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="AJ84">
+        <v>2.4687000000000001</v>
+      </c>
+      <c r="AK84">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="AL84">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AM84">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="AN84">
+        <v>3.2616000000000001</v>
+      </c>
+      <c r="AO84">
+        <v>3.0396000000000001</v>
+      </c>
+      <c r="AP84">
+        <v>2.4445999999999999</v>
+      </c>
+      <c r="AQ84">
+        <v>3.6760000000000002</v>
+      </c>
+      <c r="AR84">
+        <v>1.093</v>
+      </c>
+      <c r="AS84">
+        <v>0.998</v>
+      </c>
       <c r="AT84" s="7">
         <v>3.2124999999999999</v>
       </c>
@@ -12550,6 +14149,33 @@
       </c>
     </row>
     <row r="85" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2048</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85:G85" si="1">SUM(V83:V87)/5</f>
+        <v>3.2580399999999998</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>3.3477599999999996</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>2.5453199999999998</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>3.5632199999999998</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0.80831999999999993</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>0.71411800000000003</v>
+      </c>
       <c r="P85">
         <v>3.415</v>
       </c>
@@ -12568,6 +14194,24 @@
       <c r="U85">
         <v>0.67959999999999998</v>
       </c>
+      <c r="V85">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="W85">
+        <v>3.036</v>
+      </c>
+      <c r="X85">
+        <v>2.5501</v>
+      </c>
+      <c r="Y85">
+        <v>3.593</v>
+      </c>
+      <c r="Z85">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="AA85">
+        <v>0.70850000000000002</v>
+      </c>
       <c r="AB85">
         <v>3.2639999999999998</v>
       </c>
@@ -12585,6 +14229,42 @@
       </c>
       <c r="AG85">
         <v>0.76949999999999996</v>
+      </c>
+      <c r="AH85">
+        <v>3.1943999999999999</v>
+      </c>
+      <c r="AI85">
+        <v>3.0070000000000001</v>
+      </c>
+      <c r="AJ85">
+        <v>2.4998999999999998</v>
+      </c>
+      <c r="AK85">
+        <v>3.5640000000000001</v>
+      </c>
+      <c r="AL85">
+        <v>0.94510000000000005</v>
+      </c>
+      <c r="AM85">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="AN85">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="AO85">
+        <v>3.0415000000000001</v>
+      </c>
+      <c r="AP85">
+        <v>2.379</v>
+      </c>
+      <c r="AQ85">
+        <v>3.8195000000000001</v>
+      </c>
+      <c r="AR85">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="AS85">
+        <v>1.012</v>
       </c>
       <c r="AT85" s="7">
         <v>3.3037000000000001</v>
@@ -12610,27 +14290,27 @@
         <v>4096</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86:G86" si="1">SUM(AB83:AB87)/5</f>
+        <f t="shared" ref="B86:G86" si="2">SUM(AB83:AB87)/5</f>
         <v>3.2439799999999996</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0391199999999996</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5150399999999999</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.66608</v>
       </c>
       <c r="F86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.85816000000000003</v>
       </c>
       <c r="G86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.76382000000000005</v>
       </c>
       <c r="P86">
@@ -12651,6 +14331,24 @@
       <c r="U86">
         <v>0.67100000000000004</v>
       </c>
+      <c r="V86">
+        <v>3.2399</v>
+      </c>
+      <c r="W86">
+        <v>3.7437999999999998</v>
+      </c>
+      <c r="X86">
+        <v>2.556</v>
+      </c>
+      <c r="Y86">
+        <v>3.6956000000000002</v>
+      </c>
+      <c r="Z86">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="AA86">
+        <v>0.72360000000000002</v>
+      </c>
       <c r="AB86">
         <v>3.2250000000000001</v>
       </c>
@@ -12668,6 +14366,42 @@
       </c>
       <c r="AG86">
         <v>0.76800000000000002</v>
+      </c>
+      <c r="AH86">
+        <v>3.2635000000000001</v>
+      </c>
+      <c r="AI86">
+        <v>3.004</v>
+      </c>
+      <c r="AJ86">
+        <v>2.4455</v>
+      </c>
+      <c r="AK86">
+        <v>3.774</v>
+      </c>
+      <c r="AL86">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="AM86">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="AN86">
+        <v>3.278</v>
+      </c>
+      <c r="AO86">
+        <v>3.0375999999999999</v>
+      </c>
+      <c r="AP86">
+        <v>2.4998</v>
+      </c>
+      <c r="AQ86">
+        <v>3.5529999999999999</v>
+      </c>
+      <c r="AR86">
+        <v>1.1127</v>
+      </c>
+      <c r="AS86">
+        <v>1.008</v>
       </c>
       <c r="AT86" s="7">
         <v>3.2286999999999999</v>
@@ -12692,6 +14426,30 @@
       <c r="A87">
         <v>8192</v>
       </c>
+      <c r="B87">
+        <f t="shared" ref="B87:G87" si="3">SUM(AH83:AH87)/5</f>
+        <v>3.2311799999999997</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="3"/>
+        <v>3.0519400000000001</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>2.46862</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="3"/>
+        <v>3.6358200000000003</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.93990000000000007</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="3"/>
+        <v>0.8348199999999999</v>
+      </c>
       <c r="P87">
         <v>3.2477999999999998</v>
       </c>
@@ -12710,6 +14468,24 @@
       <c r="U87">
         <v>0.64525999999999994</v>
       </c>
+      <c r="V87">
+        <v>3.274</v>
+      </c>
+      <c r="W87">
+        <v>3.8170000000000002</v>
+      </c>
+      <c r="X87">
+        <v>2.5417000000000001</v>
+      </c>
+      <c r="Y87">
+        <v>3.6280000000000001</v>
+      </c>
+      <c r="Z87">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AA87">
+        <v>0.70248999999999995</v>
+      </c>
       <c r="AB87">
         <v>3.2357999999999998</v>
       </c>
@@ -12727,6 +14503,42 @@
       </c>
       <c r="AG87">
         <v>0.75860000000000005</v>
+      </c>
+      <c r="AH87">
+        <v>3.246</v>
+      </c>
+      <c r="AI87">
+        <v>3.0487000000000002</v>
+      </c>
+      <c r="AJ87">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="AK87">
+        <v>3.625</v>
+      </c>
+      <c r="AL87">
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="AM87">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="AN87">
+        <v>3.2801</v>
+      </c>
+      <c r="AO87">
+        <v>3.0169999999999999</v>
+      </c>
+      <c r="AP87">
+        <v>2.431</v>
+      </c>
+      <c r="AQ87">
+        <v>3.633</v>
+      </c>
+      <c r="AR87">
+        <v>1.115</v>
+      </c>
+      <c r="AS87">
+        <v>1.0129999999999999</v>
       </c>
       <c r="AT87" s="7">
         <v>3.238</v>
@@ -12751,33 +14563,57 @@
       <c r="A88">
         <v>16384</v>
       </c>
+      <c r="B88">
+        <f t="shared" ref="B88:G88" si="4">SUM(AN83:AN87)/5</f>
+        <v>3.2535000000000003</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>3.0275399999999997</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="4"/>
+        <v>2.4354799999999996</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>3.6492999999999993</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>1.0983000000000001</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>1.0079999999999998</v>
+      </c>
     </row>
     <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>32768</v>
       </c>
       <c r="B89">
-        <f>SUM(AT83:AT87)/5</f>
+        <f t="shared" ref="B89:G89" si="5">SUM(AT83:AT87)/5</f>
         <v>3.25298</v>
       </c>
       <c r="C89">
-        <f>SUM(AU83:AU87)/5</f>
+        <f t="shared" si="5"/>
         <v>3.0285600000000001</v>
       </c>
       <c r="D89">
-        <f>SUM(AV83:AV87)/5</f>
+        <f t="shared" si="5"/>
         <v>2.4087400000000003</v>
       </c>
       <c r="E89">
-        <f>SUM(AW83:AW87)/5</f>
+        <f t="shared" si="5"/>
         <v>3.6267200000000002</v>
       </c>
       <c r="F89">
-        <f>SUM(AX83:AX87)/5</f>
+        <f t="shared" si="5"/>
         <v>1.4287599999999998</v>
       </c>
       <c r="G89">
-        <f>SUM(AY83:AY87)/5</f>
+        <f t="shared" si="5"/>
         <v>1.3405</v>
       </c>
     </row>
@@ -12789,10 +14625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:Z67"/>
+  <dimension ref="A2:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="W55" sqref="W55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V29" sqref="V29:V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12800,7 +14636,7 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -12811,7 +14647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12831,7 +14667,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
@@ -12868,8 +14704,26 @@
       <c r="R4" t="s">
         <v>47</v>
       </c>
+      <c r="V4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2048</v>
       </c>
@@ -12906,8 +14760,26 @@
       <c r="R5">
         <v>5.7717499999999999</v>
       </c>
+      <c r="V5">
+        <v>512</v>
+      </c>
+      <c r="W5">
+        <v>3.27128</v>
+      </c>
+      <c r="X5">
+        <v>2.9648600000000003</v>
+      </c>
+      <c r="Y5">
+        <v>2.7697600000000002</v>
+      </c>
+      <c r="Z5">
+        <v>3.7330399999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.75616000000000005</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4096</v>
       </c>
@@ -12944,8 +14816,26 @@
       <c r="R6">
         <v>6.2567500000000003</v>
       </c>
+      <c r="V6">
+        <v>2048</v>
+      </c>
+      <c r="W6">
+        <v>3.2580399999999998</v>
+      </c>
+      <c r="X6">
+        <v>3.3477599999999996</v>
+      </c>
+      <c r="Y6">
+        <v>2.5453199999999998</v>
+      </c>
+      <c r="Z6">
+        <v>3.5632199999999998</v>
+      </c>
+      <c r="AA6">
+        <v>0.80831999999999993</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8192</v>
       </c>
@@ -12982,8 +14872,26 @@
       <c r="R7">
         <v>5.4442000000000004</v>
       </c>
+      <c r="V7">
+        <v>4096</v>
+      </c>
+      <c r="W7">
+        <v>3.2439799999999996</v>
+      </c>
+      <c r="X7">
+        <v>3.0391199999999996</v>
+      </c>
+      <c r="Y7">
+        <v>2.5150399999999999</v>
+      </c>
+      <c r="Z7">
+        <v>3.66608</v>
+      </c>
+      <c r="AA7">
+        <v>0.85816000000000003</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16384</v>
       </c>
@@ -13020,8 +14928,26 @@
       <c r="R8">
         <v>5.3798000000000004</v>
       </c>
+      <c r="V8">
+        <v>8192</v>
+      </c>
+      <c r="W8">
+        <v>3.2311799999999997</v>
+      </c>
+      <c r="X8">
+        <v>3.0519400000000001</v>
+      </c>
+      <c r="Y8">
+        <v>2.46862</v>
+      </c>
+      <c r="Z8">
+        <v>3.6358200000000003</v>
+      </c>
+      <c r="AA8">
+        <v>0.93990000000000007</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32768</v>
       </c>
@@ -13058,8 +14984,26 @@
       <c r="R9">
         <v>5.6402250000000009</v>
       </c>
+      <c r="V9">
+        <v>16384</v>
+      </c>
+      <c r="W9">
+        <v>3.2535000000000003</v>
+      </c>
+      <c r="X9">
+        <v>3.0275399999999997</v>
+      </c>
+      <c r="Y9">
+        <v>2.4354799999999996</v>
+      </c>
+      <c r="Z9">
+        <v>3.6492999999999993</v>
+      </c>
+      <c r="AA9">
+        <v>1.0983000000000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>16384</v>
       </c>
@@ -13077,6 +15021,24 @@
       </c>
       <c r="R10">
         <v>6.0894999999999992</v>
+      </c>
+      <c r="V10">
+        <v>32768</v>
+      </c>
+      <c r="W10">
+        <v>3.25298</v>
+      </c>
+      <c r="X10">
+        <v>3.0285600000000001</v>
+      </c>
+      <c r="Y10">
+        <v>2.4087400000000003</v>
+      </c>
+      <c r="Z10">
+        <v>3.6267200000000002</v>
+      </c>
+      <c r="AA10">
+        <v>1.4287599999999998</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192FBC56-46E6-4394-A44B-04254417C060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF522105-83EF-46AD-8152-AF47016113CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25125" yWindow="1080" windowWidth="30345" windowHeight="15345" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="1500" yWindow="255" windowWidth="39795" windowHeight="15345" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
   <si>
     <t>Blocksize</t>
   </si>
@@ -331,9 +331,6 @@
     <t>512 logical sector 512 physical  buffered reads 330 MB/sec 100 IOPS</t>
   </si>
   <si>
-    <t>lscp</t>
-  </si>
-  <si>
     <t>io2</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>Build Dict</t>
+  </si>
+  <si>
+    <t>t3 gp3</t>
   </si>
 </sst>
 </file>
@@ -3471,7 +3471,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3500,7 +3500,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3825,7 +3825,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3881,7 +3881,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3896,9 +3896,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="tx1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3920,9 +3918,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3945,9 +3943,7 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="tx1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
@@ -3966,7 +3962,7 @@
       <a:pPr>
         <a:defRPr>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
@@ -5261,6 +5257,724 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AG$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AF$6:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AG$6:$AG$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5506000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5587999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6067999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6126000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86B6-46E8-A2F0-270BAB4FEBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AH$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AF$6:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AH$6:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0935999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1722199999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9254000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9402400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86B6-46E8-A2F0-270BAB4FEBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AI$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AF$6:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AI$6:$AI$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3573999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1519399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-86B6-46E8-A2F0-270BAB4FEBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AJ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read dict from file</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AF$6:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AJ$6:$AJ$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1724000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.25434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0423999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2187999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-86B6-46E8-A2F0-270BAB4FEBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AK$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetch records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AF$6:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AK$6:$AK$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3215999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3409200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1332800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-86B6-46E8-A2F0-270BAB4FEBB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="653471752"/>
+        <c:axId val="653466712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="653471752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653466712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="653466712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="653471752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5614,6 +6328,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -8633,6 +9387,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9289,10 +10546,10 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9384,6 +10641,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCA9442-A476-71C7-F444-1043A68F8CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9691,8 +10984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
   <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:G89"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9703,9 +10996,7 @@
     <col min="4" max="5" width="14.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="39" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="40" max="45" width="9.140625" customWidth="1"/>
+    <col min="8" max="45" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -12266,7 +13557,7 @@
         <v>3.972</v>
       </c>
       <c r="AA40" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="AD40">
         <v>4.5860000000000003</v>
@@ -12377,6 +13668,22 @@
         <f>SUM(Y39:Y43)</f>
         <v>4.4950000000000001</v>
       </c>
+      <c r="C42">
+        <f>SUM(Z39:Z43)/2</f>
+        <v>3.91</v>
+      </c>
+      <c r="D42">
+        <f>SUM(AA39:AA43)</f>
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="E42">
+        <f>SUM(AB39:AB43)</f>
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="F42">
+        <f>SUM(AC39:AC43)</f>
+        <v>1.4279999999999999</v>
+      </c>
       <c r="J42">
         <v>4.3120000000000003</v>
       </c>
@@ -13841,13 +15148,13 @@
     </row>
     <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:51" x14ac:dyDescent="0.25">
@@ -13870,7 +15177,7 @@
         <v>47</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J82" t="s">
         <v>75</v>
@@ -13879,7 +15186,7 @@
         <v>89</v>
       </c>
       <c r="V82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AB82" t="s">
         <v>91</v>
@@ -14625,10 +15932,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:AA67"/>
+  <dimension ref="A2:AK67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V29" sqref="V29:V30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14636,7 +15943,7 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -14646,8 +15953,11 @@
       <c r="N2" t="s">
         <v>84</v>
       </c>
+      <c r="AG2" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -14667,7 +15977,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
@@ -14708,22 +16018,22 @@
         <v>8</v>
       </c>
       <c r="W4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y4" t="s">
         <v>114</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>116</v>
       </c>
-      <c r="AA4" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2048</v>
       </c>
@@ -14778,8 +16088,26 @@
       <c r="AA5">
         <v>0.75616000000000005</v>
       </c>
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4096</v>
       </c>
@@ -14834,8 +16162,26 @@
       <c r="AA6">
         <v>0.80831999999999993</v>
       </c>
+      <c r="AF6">
+        <v>512</v>
+      </c>
+      <c r="AG6">
+        <v>4.5506000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>4.0935999999999995</v>
+      </c>
+      <c r="AI6">
+        <v>3.5768</v>
+      </c>
+      <c r="AJ6">
+        <v>5.1724000000000006</v>
+      </c>
+      <c r="AK6">
+        <v>1.3215999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8192</v>
       </c>
@@ -14890,8 +16236,26 @@
       <c r="AA7">
         <v>0.85816000000000003</v>
       </c>
+      <c r="AF7">
+        <v>2048</v>
+      </c>
+      <c r="AG7">
+        <v>4.5587999999999997</v>
+      </c>
+      <c r="AH7">
+        <v>4.1722199999999994</v>
+      </c>
+      <c r="AI7">
+        <v>3.4170000000000003</v>
+      </c>
+      <c r="AJ7">
+        <v>5.25434</v>
+      </c>
+      <c r="AK7">
+        <v>1.3409200000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16384</v>
       </c>
@@ -14946,8 +16310,26 @@
       <c r="AA8">
         <v>0.93990000000000007</v>
       </c>
+      <c r="AF8">
+        <v>4096</v>
+      </c>
+      <c r="AG8">
+        <v>4.6067999999999998</v>
+      </c>
+      <c r="AH8">
+        <v>3.9254000000000007</v>
+      </c>
+      <c r="AI8">
+        <v>3.3573999999999997</v>
+      </c>
+      <c r="AJ8">
+        <v>5.0423999999999998</v>
+      </c>
+      <c r="AK8">
+        <v>1.2804</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32768</v>
       </c>
@@ -15002,8 +16384,26 @@
       <c r="AA9">
         <v>1.0983000000000001</v>
       </c>
+      <c r="AF9">
+        <v>8192</v>
+      </c>
+      <c r="AG9">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>3.91</v>
+      </c>
+      <c r="AI9">
+        <v>3.2770000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="AK9">
+        <v>1.4279999999999999</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>16384</v>
       </c>
@@ -15039,6 +16439,24 @@
       </c>
       <c r="AA10">
         <v>1.4287599999999998</v>
+      </c>
+      <c r="AF10">
+        <v>32768</v>
+      </c>
+      <c r="AG10">
+        <v>4.6126000000000005</v>
+      </c>
+      <c r="AH10">
+        <v>3.9402400000000002</v>
+      </c>
+      <c r="AI10">
+        <v>3.1519399999999997</v>
+      </c>
+      <c r="AJ10">
+        <v>5.2187999999999999</v>
+      </c>
+      <c r="AK10">
+        <v>2.1332800000000001</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -15048,7 +16466,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>90</v>
@@ -15057,7 +16475,7 @@
         <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
@@ -15258,10 +16676,10 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O58" t="s">
+        <v>100</v>
+      </c>
+      <c r="U58" t="s">
         <v>101</v>
-      </c>
-      <c r="U58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
@@ -15304,13 +16722,13 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
         <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" t="s">
-        <v>111</v>
       </c>
       <c r="N60">
         <v>512</v>
@@ -15363,7 +16781,7 @@
         <v>0.75616000000000005</v>
       </c>
       <c r="M61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N61">
         <v>4096</v>
@@ -15471,16 +16889,16 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="13:26" x14ac:dyDescent="0.25">

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF522105-83EF-46AD-8152-AF47016113CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14C790-334A-48AC-B5B5-777E7EAB0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="255" windowWidth="39795" windowHeight="15345" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="4980" yWindow="-195" windowWidth="32550" windowHeight="15225" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
   <si>
     <t>Blocksize</t>
   </si>
@@ -396,6 +396,9 @@
   <si>
     <t>t3 gp3</t>
   </si>
+  <si>
+    <t>t3 gp2</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1408,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1418,23 +1421,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1600"/>
               <a:t>T2</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t> Micro</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
               <a:t>Times in Seconds</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1600"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1451,7 +1454,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1483,105 +1486,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>build dict</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$M$5:$M$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$5:$N$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.2572500000000009</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3167499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1784749999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1967400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2372750000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9384999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-884F-41AA-AB47-59E361D897B0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$O$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>write dict</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1639,27 +1543,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$5:$O$10</c:f>
+              <c:f>Sheet3!$N$5:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.8766500000000006</c:v>
+                  <c:v>5.2572500000000009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1167499999999997</c:v>
+                  <c:v>5.3167499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.153975</c:v>
+                  <c:v>5.1784749999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0961400000000001</c:v>
+                  <c:v>5.1967400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1112500000000001</c:v>
+                  <c:v>5.2372750000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8559000000000001</c:v>
+                  <c:v>3.9384999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,20 +1571,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-884F-41AA-AB47-59E361D897B0}"/>
+              <c16:uniqueId val="{00000000-884F-41AA-AB47-59E361D897B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$P$4</c:f>
+              <c:f>Sheet3!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>build database</c:v>
+                  <c:v>write dict</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1738,27 +1642,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$P$5:$P$10</c:f>
+              <c:f>Sheet3!$O$5:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.62</c:v>
+                  <c:v>4.8766500000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0332499999999998</c:v>
+                  <c:v>5.1167499999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8313750000000004</c:v>
+                  <c:v>5.153975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7762599999999997</c:v>
+                  <c:v>5.0961400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6841499999999998</c:v>
+                  <c:v>5.1112500000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6152499999999996</c:v>
+                  <c:v>4.8559000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,20 +1670,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-884F-41AA-AB47-59E361D897B0}"/>
+              <c16:uniqueId val="{00000001-884F-41AA-AB47-59E361D897B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$Q$4</c:f>
+              <c:f>Sheet3!$P$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>read dict from file</c:v>
+                  <c:v>build database</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1787,7 +1691,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="7030A0"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1837,27 +1741,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Q$5:$Q$10</c:f>
+              <c:f>Sheet3!$P$5:$P$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.0942499999999997</c:v>
+                  <c:v>5.62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0962499999999995</c:v>
+                  <c:v>5.0332499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0153749999999988</c:v>
+                  <c:v>4.8313750000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0262000000000002</c:v>
+                  <c:v>4.7762599999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0602499999999999</c:v>
+                  <c:v>4.6841499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9375</c:v>
+                  <c:v>4.6152499999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,20 +1769,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-884F-41AA-AB47-59E361D897B0}"/>
+              <c16:uniqueId val="{00000002-884F-41AA-AB47-59E361D897B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$R$4</c:f>
+              <c:f>Sheet3!$Q$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fetch records</c:v>
+                  <c:v>read dict from file</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1901,7 +1805,106 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$5:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0942499999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0962499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0153749999999988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0262000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0602499999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-884F-41AA-AB47-59E361D897B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetch records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2010,7 +2013,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2069,7 +2072,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2105,7 +2108,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2128,7 +2131,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2151,7 +2154,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2174,7 +2177,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2197,7 +2200,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2226,7 +2229,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2921,556 +2924,6 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Processing</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time To Build Dictionary</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$N$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t2 micro</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$M$65:$M$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$65:$N$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5.5617999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4916</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1882000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9B7-42CA-BA0C-D7A888B28B7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$O$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>t3 large</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$M$65:$M$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$O$65:$O$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.5595400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5784000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5249999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A9B7-42CA-BA0C-D7A888B28B7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$P$64</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>d3 xlarge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$M$65:$M$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32678</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$P$65:$P$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4.1179600000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1031999999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0879199999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A9B7-42CA-BA0C-D7A888B28B7D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="679547096"/>
-        <c:axId val="679547456"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="679547096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="679547456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="679547456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="679547096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="2"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3977,7 +3430,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4442,7 +3895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5330,7 +4783,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5989,6 +5442,1213 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AP$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AO$6:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AP$6:$AP$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.5595400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6338000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5784000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5249999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11E4-45B5-AD0A-B5AC95F2B857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AQ$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>write dict</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AO$6:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AQ$6:$AQ$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9753999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0590000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8957999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11E4-45B5-AD0A-B5AC95F2B857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AR$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>build database</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AO$6:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AR$6:$AR$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4728000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2955999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1145999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-11E4-45B5-AD0A-B5AC95F2B857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AS$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>read dict from file</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AO$6:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AS$6:$AS$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.2009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1954000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2470000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-11E4-45B5-AD0A-B5AC95F2B857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$AT$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fetch records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="92D050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$AO$6:$AO$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$AT$6:$AT$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.3031999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3048000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0287999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3876000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0103999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-11E4-45B5-AD0A-B5AC95F2B857}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="645283360"/>
+        <c:axId val="645278320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="645283360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645278320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645278320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645283360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t> of Time to Read Database </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" baseline="0"/>
+              <a:t>for t3 large instance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gp2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$97:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$97:$C$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.1550999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3118700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97E7-4C05-9525-34C6973C3058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gp3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$97:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$97:$D$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.13896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.27834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1332800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97E7-4C05-9525-34C6973C3058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$96</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>io2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$B$97:$B$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$97:$E$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0904800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2574999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0150399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97E7-4C05-9525-34C6973C3058}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="645027712"/>
+        <c:axId val="645036352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="645027712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645036352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="645036352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="645027712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -6368,6 +7028,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9890,6 +10590,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10432,16 +11635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10504,23 +11707,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>147637</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14C9B38-8B25-8CE4-973B-70C0B29407F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3DB3EA-9359-4C64-9B8E-EEA0C4598F10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10540,52 +11743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3DB3EA-9359-4C64-9B8E-EEA0C4598F10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10604,7 +11771,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10640,7 +11807,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10676,7 +11843,79 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE381BCC-C9D0-B64C-D53A-97E09EC99C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE6EAFE-BD8B-F487-DDE6-D4196488D1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10984,8 +12223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
   <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:F43"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15932,18 +17171,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
-  <dimension ref="A2:AK67"/>
+  <dimension ref="A2:AT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="Q118" sqref="Q118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -15956,8 +17195,11 @@
       <c r="AG2" t="s">
         <v>118</v>
       </c>
+      <c r="AO2" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -15977,7 +17219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>512</v>
       </c>
@@ -16033,7 +17275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2048</v>
       </c>
@@ -16106,8 +17348,23 @@
       <c r="AK5" t="s">
         <v>47</v>
       </c>
+      <c r="AP5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4096</v>
       </c>
@@ -16180,8 +17437,26 @@
       <c r="AK6">
         <v>1.3215999999999999</v>
       </c>
+      <c r="AO6">
+        <v>512</v>
+      </c>
+      <c r="AP6">
+        <v>4.5595400000000001</v>
+      </c>
+      <c r="AQ6">
+        <v>3.8302</v>
+      </c>
+      <c r="AR6">
+        <v>3.4728000000000003</v>
+      </c>
+      <c r="AS6">
+        <v>5.2009999999999996</v>
+      </c>
+      <c r="AT6">
+        <v>1.3031999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8192</v>
       </c>
@@ -16254,8 +17529,26 @@
       <c r="AK7">
         <v>1.3409200000000001</v>
       </c>
+      <c r="AO7">
+        <v>2048</v>
+      </c>
+      <c r="AP7">
+        <v>4.6338000000000008</v>
+      </c>
+      <c r="AQ7">
+        <v>3.9753999999999996</v>
+      </c>
+      <c r="AR7">
+        <v>3.2955999999999994</v>
+      </c>
+      <c r="AS7">
+        <v>5.1954000000000002</v>
+      </c>
+      <c r="AT7">
+        <v>1.3048000000000002</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16384</v>
       </c>
@@ -16328,8 +17621,26 @@
       <c r="AK8">
         <v>1.2804</v>
       </c>
+      <c r="AO8">
+        <v>4096</v>
+      </c>
+      <c r="AP8">
+        <v>4.5784000000000002</v>
+      </c>
+      <c r="AQ8">
+        <v>3.1248</v>
+      </c>
+      <c r="AR8">
+        <v>2.6332</v>
+      </c>
+      <c r="AS8">
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="AT8">
+        <v>1.0287999999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32768</v>
       </c>
@@ -16402,8 +17713,26 @@
       <c r="AK9">
         <v>1.4279999999999999</v>
       </c>
+      <c r="AO9">
+        <v>8192</v>
+      </c>
+      <c r="AP9">
+        <v>4.5659999999999998</v>
+      </c>
+      <c r="AQ9">
+        <v>4.0590000000000002</v>
+      </c>
+      <c r="AR9">
+        <v>3.1981999999999999</v>
+      </c>
+      <c r="AS9">
+        <v>5.2470000000000008</v>
+      </c>
+      <c r="AT9">
+        <v>1.3876000000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>16384</v>
       </c>
@@ -16457,6 +17786,24 @@
       </c>
       <c r="AK10">
         <v>2.1332800000000001</v>
+      </c>
+      <c r="AO10">
+        <v>32768</v>
+      </c>
+      <c r="AP10">
+        <v>4.5249999999999995</v>
+      </c>
+      <c r="AQ10">
+        <v>3.8957999999999999</v>
+      </c>
+      <c r="AR10">
+        <v>3.1145999999999998</v>
+      </c>
+      <c r="AS10">
+        <v>5.1372</v>
+      </c>
+      <c r="AT10">
+        <v>2.0103999999999997</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -17004,6 +18351,64 @@
       </c>
       <c r="Z67">
         <v>2.1371199999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D96" t="s">
+        <v>92</v>
+      </c>
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>512</v>
+      </c>
+      <c r="C97">
+        <v>1.1550999999999998</v>
+      </c>
+      <c r="D97">
+        <v>1.13896</v>
+      </c>
+      <c r="E97">
+        <v>1.0904800000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>4096</v>
+      </c>
+      <c r="C98">
+        <v>1.3118700000000001</v>
+      </c>
+      <c r="D98">
+        <v>1.27834</v>
+      </c>
+      <c r="E98">
+        <v>1.2574999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>32768</v>
+      </c>
+      <c r="C99">
+        <v>2.11374</v>
+      </c>
+      <c r="D99">
+        <v>2.1332800000000001</v>
+      </c>
+      <c r="E99">
+        <v>2.0150399999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P117">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA14C790-334A-48AC-B5B5-777E7EAB0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FACACF-AB88-4BEE-971B-B04FCAE28F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="-195" windowWidth="32550" windowHeight="15225" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="12105" yWindow="2610" windowWidth="41595" windowHeight="15135" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3453,7 +3453,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3462,7 +3462,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Random IO while reading keys</a:t>
+              <a:t>Timing Random IO</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3482,7 +3482,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3739,9 +3739,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3779,7 +3779,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3795,9 +3795,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="bg1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3836,7 +3836,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="bg1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -3860,7 +3860,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -3880,7 +3880,7 @@
       <a:pPr>
         <a:defRPr>
           <a:solidFill>
-            <a:schemeClr val="bg1"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:defRPr>
       </a:pPr>
@@ -11743,16 +11743,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11893,10 +11893,10 @@
       <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18353,7 +18353,12 @@
         <v>2.1371199999999999</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>90</v>
       </c>

--- a/Timings.xlsx
+++ b/Timings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\COSC6376-Cloud\project\BuildVoterDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FACACF-AB88-4BEE-971B-B04FCAE28F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CBFE18-48C8-47DE-AEFB-567F9B65B127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="2610" windowWidth="41595" windowHeight="15135" activeTab="1" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
+    <workbookView xWindow="34080" yWindow="-300" windowWidth="35475" windowHeight="15135" xr2:uid="{D0C4C60E-E71B-4053-B028-600BDBC10FF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="121">
   <si>
     <t>Blocksize</t>
   </si>
@@ -367,9 +367,6 @@
     <t>i4 xlarge</t>
   </si>
   <si>
-    <t>t3 io2</t>
-  </si>
-  <si>
     <t>i4 (nitro)</t>
   </si>
   <si>
@@ -398,6 +395,12 @@
   </si>
   <si>
     <t>t3 gp2</t>
+  </si>
+  <si>
+    <t>Mongo</t>
+  </si>
+  <si>
+    <t>read</t>
   </si>
 </sst>
 </file>
@@ -3509,7 +3512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>t3 io2</c:v>
+                  <c:v>io2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3795,7 +3798,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -6547,7 +6550,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -12221,10 +12224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD1D8C9-CB71-4365-851C-1CECA1F9A8AB}">
-  <dimension ref="A1:AY89"/>
+  <dimension ref="A1:AY95"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16390,7 +16393,7 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>105</v>
@@ -17161,6 +17164,54 @@
       <c r="G89">
         <f t="shared" si="5"/>
         <v>1.3405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>270.64999999999998</v>
+      </c>
+      <c r="C92">
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>272.95</v>
+      </c>
+      <c r="C93">
+        <v>27.34</v>
+      </c>
+      <c r="I93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>274.47000000000003</v>
+      </c>
+      <c r="C94">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f>SUM(B92:B94)/3</f>
+        <v>272.69</v>
+      </c>
+      <c r="C95">
+        <f>SUM(C92:C94)/3</f>
+        <v>27.113333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -17173,8 +17224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE49F0-CD4C-4C3F-ACBE-BAE6ED5B0868}">
   <dimension ref="A2:AT117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="Q118" sqref="Q118"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17193,10 +17244,10 @@
         <v>84</v>
       </c>
       <c r="AG2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO2" t="s">
         <v>118</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
@@ -17260,19 +17311,19 @@
         <v>8</v>
       </c>
       <c r="W4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4" t="s">
         <v>113</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>114</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>115</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -18069,13 +18120,13 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" t="s">
-        <v>110</v>
       </c>
       <c r="N60">
         <v>512</v>
